--- a/data/scheduling_DNN/predict/result1.xlsx
+++ b/data/scheduling_DNN/predict/result1.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -564,7 +564,7 @@
         <v>1.469604969024658</v>
       </c>
       <c r="V2" t="n">
-        <v>0.8497616052627563</v>
+        <v>0.6046422719955444</v>
       </c>
     </row>
     <row r="3" spans="1:22">
@@ -632,7 +632,7 @@
         <v>0.9576139450073242</v>
       </c>
       <c r="V3" t="n">
-        <v>0.3684415817260742</v>
+        <v>0.4411333203315735</v>
       </c>
     </row>
     <row r="4" spans="1:22">
@@ -700,7 +700,7 @@
         <v>0.9052128791809082</v>
       </c>
       <c r="V4" t="n">
-        <v>1.194853186607361</v>
+        <v>0.8856419324874878</v>
       </c>
     </row>
     <row r="5" spans="1:22">
@@ -768,7 +768,7 @@
         <v>0.9127449989318848</v>
       </c>
       <c r="V5" t="n">
-        <v>0.8860852122306824</v>
+        <v>0.7030863761901855</v>
       </c>
     </row>
     <row r="6" spans="1:22">
@@ -836,7 +836,7 @@
         <v>0.8934659957885742</v>
       </c>
       <c r="V6" t="n">
-        <v>1.156104922294617</v>
+        <v>0.4034273028373718</v>
       </c>
     </row>
     <row r="7" spans="1:22">
@@ -904,7 +904,7 @@
         <v>0.8803379535675049</v>
       </c>
       <c r="V7" t="n">
-        <v>0.3849747776985168</v>
+        <v>0.4784874320030212</v>
       </c>
     </row>
     <row r="8" spans="1:22">
@@ -972,7 +972,7 @@
         <v>0.9409048557281494</v>
       </c>
       <c r="V8" t="n">
-        <v>1.156655192375183</v>
+        <v>0.5887113809585571</v>
       </c>
     </row>
     <row r="9" spans="1:22">
@@ -1040,7 +1040,7 @@
         <v>0.8936929702758789</v>
       </c>
       <c r="V9" t="n">
-        <v>0.8666236996650696</v>
+        <v>0.7033395767211914</v>
       </c>
     </row>
     <row r="10" spans="1:22">
@@ -1108,7 +1108,7 @@
         <v>0.881087064743042</v>
       </c>
       <c r="V10" t="n">
-        <v>1.089241504669189</v>
+        <v>0.6047618389129639</v>
       </c>
     </row>
     <row r="11" spans="1:22">
@@ -1176,7 +1176,7 @@
         <v>0.8740129470825195</v>
       </c>
       <c r="V11" t="n">
-        <v>1.127065062522888</v>
+        <v>0.8821443915367126</v>
       </c>
     </row>
     <row r="12" spans="1:22">
@@ -1244,7 +1244,7 @@
         <v>0.9498248100280762</v>
       </c>
       <c r="V12" t="n">
-        <v>0.4150326251983643</v>
+        <v>0.4844722747802734</v>
       </c>
     </row>
     <row r="13" spans="1:22">
@@ -1312,7 +1312,7 @@
         <v>0.9320590496063232</v>
       </c>
       <c r="V13" t="n">
-        <v>0.3949686288833618</v>
+        <v>0.7102096080780029</v>
       </c>
     </row>
     <row r="14" spans="1:22">
@@ -1380,7 +1380,7 @@
         <v>0.9392838478088379</v>
       </c>
       <c r="V14" t="n">
-        <v>0.5023742318153381</v>
+        <v>0.475893497467041</v>
       </c>
     </row>
     <row r="15" spans="1:22">
@@ -1448,7 +1448,7 @@
         <v>0.9032180309295654</v>
       </c>
       <c r="V15" t="n">
-        <v>0.4520871341228485</v>
+        <v>0.4223143458366394</v>
       </c>
     </row>
     <row r="16" spans="1:22">
@@ -1516,7 +1516,7 @@
         <v>0.9470698833465576</v>
       </c>
       <c r="V16" t="n">
-        <v>0.8916449546813965</v>
+        <v>0.4223841428756714</v>
       </c>
     </row>
     <row r="17" spans="1:22">
@@ -1584,7 +1584,7 @@
         <v>0.8911538124084473</v>
       </c>
       <c r="V17" t="n">
-        <v>0.4924793243408203</v>
+        <v>0.4806921482086182</v>
       </c>
     </row>
     <row r="18" spans="1:22">
@@ -1652,7 +1652,7 @@
         <v>0.8763668537139893</v>
       </c>
       <c r="V18" t="n">
-        <v>0.8852808475494385</v>
+        <v>0.6490634083747864</v>
       </c>
     </row>
     <row r="19" spans="1:22">
@@ -1720,7 +1720,7 @@
         <v>0.8848881721496582</v>
       </c>
       <c r="V19" t="n">
-        <v>0.8660929203033447</v>
+        <v>0.4223188161849976</v>
       </c>
     </row>
     <row r="20" spans="1:22">
@@ -1788,7 +1788,7 @@
         <v>0.9042701721191406</v>
       </c>
       <c r="V20" t="n">
-        <v>0.8864362239837646</v>
+        <v>0.8805928230285645</v>
       </c>
     </row>
     <row r="21" spans="1:22">
@@ -1856,7 +1856,7 @@
         <v>0.9186079502105713</v>
       </c>
       <c r="V21" t="n">
-        <v>0.5022416710853577</v>
+        <v>0.6106979846954346</v>
       </c>
     </row>
     <row r="22" spans="1:22">
@@ -1924,7 +1924,7 @@
         <v>0.5461130142211914</v>
       </c>
       <c r="V22" t="n">
-        <v>0.4925620555877686</v>
+        <v>0.6516602039337158</v>
       </c>
     </row>
     <row r="23" spans="1:22">
@@ -1992,7 +1992,7 @@
         <v>0.5479838848114014</v>
       </c>
       <c r="V23" t="n">
-        <v>0.4959331154823303</v>
+        <v>0.8844561576843262</v>
       </c>
     </row>
     <row r="24" spans="1:22">
@@ -2060,7 +2060,7 @@
         <v>0.5971319675445557</v>
       </c>
       <c r="V24" t="n">
-        <v>0.8862499594688416</v>
+        <v>0.8845577836036682</v>
       </c>
     </row>
     <row r="25" spans="1:22">
@@ -2128,7 +2128,7 @@
         <v>0.5396850109100342</v>
       </c>
       <c r="V25" t="n">
-        <v>0.3693868219852448</v>
+        <v>0.480116069316864</v>
       </c>
     </row>
     <row r="26" spans="1:22">
@@ -2196,7 +2196,7 @@
         <v>0.5460989475250244</v>
       </c>
       <c r="V26" t="n">
-        <v>0.3974714279174805</v>
+        <v>0.4721607565879822</v>
       </c>
     </row>
     <row r="27" spans="1:22">
@@ -2264,7 +2264,7 @@
         <v>0.5273451805114746</v>
       </c>
       <c r="V27" t="n">
-        <v>0.496187686920166</v>
+        <v>0.8878307342529297</v>
       </c>
     </row>
     <row r="28" spans="1:22">
@@ -2332,7 +2332,7 @@
         <v>0.5345249176025391</v>
       </c>
       <c r="V28" t="n">
-        <v>0.4923417866230011</v>
+        <v>0.4408747553825378</v>
       </c>
     </row>
     <row r="29" spans="1:22">
@@ -2400,7 +2400,7 @@
         <v>0.5431008338928223</v>
       </c>
       <c r="V29" t="n">
-        <v>0.4090864956378937</v>
+        <v>0.6281869411468506</v>
       </c>
     </row>
     <row r="30" spans="1:22">
@@ -2468,7 +2468,7 @@
         <v>0.5520429611206055</v>
       </c>
       <c r="V30" t="n">
-        <v>0.4303472638130188</v>
+        <v>0.5606808662414551</v>
       </c>
     </row>
     <row r="31" spans="1:22">
@@ -2536,7 +2536,7 @@
         <v>0.5254662036895752</v>
       </c>
       <c r="V31" t="n">
-        <v>0.8504939079284668</v>
+        <v>0.6980346441268921</v>
       </c>
     </row>
     <row r="32" spans="1:22">
@@ -2604,7 +2604,7 @@
         <v>0.5756039619445801</v>
       </c>
       <c r="V32" t="n">
-        <v>0.886506974697113</v>
+        <v>0.4795461297035217</v>
       </c>
     </row>
     <row r="33" spans="1:22">
@@ -2672,7 +2672,7 @@
         <v>0.5258669853210449</v>
       </c>
       <c r="V33" t="n">
-        <v>0.9552832245826721</v>
+        <v>0.5378856658935547</v>
       </c>
     </row>
     <row r="34" spans="1:22">
@@ -2740,7 +2740,7 @@
         <v>0.5430159568786621</v>
       </c>
       <c r="V34" t="n">
-        <v>0.4550199210643768</v>
+        <v>0.5618018507957458</v>
       </c>
     </row>
     <row r="35" spans="1:22">
@@ -2808,7 +2808,7 @@
         <v>0.5377190113067627</v>
       </c>
       <c r="V35" t="n">
-        <v>0.4504529535770416</v>
+        <v>0.4384316802024841</v>
       </c>
     </row>
     <row r="36" spans="1:22">
@@ -2876,7 +2876,7 @@
         <v>0.5283079147338867</v>
       </c>
       <c r="V36" t="n">
-        <v>0.5018166303634644</v>
+        <v>0.440751314163208</v>
       </c>
     </row>
     <row r="37" spans="1:22">
@@ -2944,7 +2944,7 @@
         <v>0.5266439914703369</v>
       </c>
       <c r="V37" t="n">
-        <v>0.3692013919353485</v>
+        <v>0.3799396157264709</v>
       </c>
     </row>
     <row r="38" spans="1:22">
@@ -3012,7 +3012,7 @@
         <v>0.5255799293518066</v>
       </c>
       <c r="V38" t="n">
-        <v>0.4996373057365417</v>
+        <v>0.6095789670944214</v>
       </c>
     </row>
     <row r="39" spans="1:22">
@@ -3080,7 +3080,7 @@
         <v>0.5257630348205566</v>
       </c>
       <c r="V39" t="n">
-        <v>0.3946121037006378</v>
+        <v>0.4036211967468262</v>
       </c>
     </row>
     <row r="40" spans="1:22">
@@ -3148,7 +3148,7 @@
         <v>0.5748438835144043</v>
       </c>
       <c r="V40" t="n">
-        <v>0.8470840454101562</v>
+        <v>0.6080566644668579</v>
       </c>
     </row>
     <row r="41" spans="1:22">
@@ -3216,7 +3216,7 @@
         <v>0.5403299331665039</v>
       </c>
       <c r="V41" t="n">
-        <v>1.124419093132019</v>
+        <v>0.6865060329437256</v>
       </c>
     </row>
     <row r="42" spans="1:22">
@@ -3284,7 +3284,7 @@
         <v>0.4217770099639893</v>
       </c>
       <c r="V42" t="n">
-        <v>0.9142194390296936</v>
+        <v>0.6181319952011108</v>
       </c>
     </row>
     <row r="43" spans="1:22">
@@ -3352,7 +3352,7 @@
         <v>0.4192249774932861</v>
       </c>
       <c r="V43" t="n">
-        <v>0.3921976089477539</v>
+        <v>0.7100529074668884</v>
       </c>
     </row>
     <row r="44" spans="1:22">
@@ -3420,7 +3420,7 @@
         <v>0.3973371982574463</v>
       </c>
       <c r="V44" t="n">
-        <v>0.4921236634254456</v>
+        <v>0.4033211469650269</v>
       </c>
     </row>
     <row r="45" spans="1:22">
@@ -3488,7 +3488,7 @@
         <v>0.396845817565918</v>
       </c>
       <c r="V45" t="n">
-        <v>0.5159828066825867</v>
+        <v>0.7939709424972534</v>
       </c>
     </row>
     <row r="46" spans="1:22">
@@ -3556,7 +3556,7 @@
         <v>0.3973300457000732</v>
       </c>
       <c r="V46" t="n">
-        <v>0.8494044542312622</v>
+        <v>0.6539028882980347</v>
       </c>
     </row>
     <row r="47" spans="1:22">
@@ -3624,7 +3624,7 @@
         <v>0.40260910987854</v>
       </c>
       <c r="V47" t="n">
-        <v>0.4147976040840149</v>
+        <v>0.4844552874565125</v>
       </c>
     </row>
     <row r="48" spans="1:22">
@@ -3692,7 +3692,7 @@
         <v>0.4107708930969238</v>
       </c>
       <c r="V48" t="n">
-        <v>0.8496295213699341</v>
+        <v>0.6076244711875916</v>
       </c>
     </row>
     <row r="49" spans="1:22">
@@ -3760,7 +3760,7 @@
         <v>0.3985190391540527</v>
       </c>
       <c r="V49" t="n">
-        <v>0.5936653614044189</v>
+        <v>0.3610904812812805</v>
       </c>
     </row>
     <row r="50" spans="1:22">
@@ -3828,7 +3828,7 @@
         <v>0.3982610702514648</v>
       </c>
       <c r="V50" t="n">
-        <v>0.8647975921630859</v>
+        <v>0.4214755892753601</v>
       </c>
     </row>
     <row r="51" spans="1:22">
@@ -3896,7 +3896,7 @@
         <v>0.3960020542144775</v>
       </c>
       <c r="V51" t="n">
-        <v>0.889859676361084</v>
+        <v>0.455345094203949</v>
       </c>
     </row>
     <row r="52" spans="1:22">
@@ -3964,7 +3964,7 @@
         <v>0.3978888988494873</v>
       </c>
       <c r="V52" t="n">
-        <v>0.5025437474250793</v>
+        <v>0.7900906205177307</v>
       </c>
     </row>
     <row r="53" spans="1:22">
@@ -4032,7 +4032,7 @@
         <v>0.3950610160827637</v>
       </c>
       <c r="V53" t="n">
-        <v>0.8898277282714844</v>
+        <v>0.3610464334487915</v>
       </c>
     </row>
     <row r="54" spans="1:22">
@@ -4100,7 +4100,7 @@
         <v>0.3979020118713379</v>
       </c>
       <c r="V54" t="n">
-        <v>0.9446749091148376</v>
+        <v>0.607180655002594</v>
       </c>
     </row>
     <row r="55" spans="1:22">
@@ -4168,7 +4168,7 @@
         <v>0.3981389999389648</v>
       </c>
       <c r="V55" t="n">
-        <v>0.4923083186149597</v>
+        <v>0.3877466320991516</v>
       </c>
     </row>
     <row r="56" spans="1:22">
@@ -4236,7 +4236,7 @@
         <v>0.3943989276885986</v>
       </c>
       <c r="V56" t="n">
-        <v>0.4029359519481659</v>
+        <v>0.6077646017074585</v>
       </c>
     </row>
     <row r="57" spans="1:22">
@@ -4304,7 +4304,7 @@
         <v>0.3950021266937256</v>
       </c>
       <c r="V57" t="n">
-        <v>0.8870216012001038</v>
+        <v>0.4810751676559448</v>
       </c>
     </row>
     <row r="58" spans="1:22">
@@ -4372,7 +4372,7 @@
         <v>0.4145150184631348</v>
       </c>
       <c r="V58" t="n">
-        <v>0.4921337068080902</v>
+        <v>0.3647720217704773</v>
       </c>
     </row>
     <row r="59" spans="1:22">
@@ -4440,7 +4440,7 @@
         <v>0.3956568241119385</v>
       </c>
       <c r="V59" t="n">
-        <v>0.5120360851287842</v>
+        <v>0.3873438239097595</v>
       </c>
     </row>
     <row r="60" spans="1:22">
@@ -4508,7 +4508,7 @@
         <v>0.4056699275970459</v>
       </c>
       <c r="V60" t="n">
-        <v>0.8749473094940186</v>
+        <v>0.6981954574584961</v>
       </c>
     </row>
     <row r="61" spans="1:22">
@@ -4576,7 +4576,7 @@
         <v>0.4059398174285889</v>
       </c>
       <c r="V61" t="n">
-        <v>0.8563687205314636</v>
+        <v>0.4425290822982788</v>
       </c>
     </row>
     <row r="62" spans="1:22">
@@ -4644,7 +4644,7 @@
         <v>1.02625584602356</v>
       </c>
       <c r="V62" t="n">
-        <v>0.4973100423812866</v>
+        <v>0.5853784084320068</v>
       </c>
     </row>
     <row r="63" spans="1:22">
@@ -4712,7 +4712,7 @@
         <v>0.9517920017242432</v>
       </c>
       <c r="V63" t="n">
-        <v>0.4841762483119965</v>
+        <v>0.4227662682533264</v>
       </c>
     </row>
     <row r="64" spans="1:22">
@@ -4780,7 +4780,7 @@
         <v>0.9051640033721924</v>
       </c>
       <c r="V64" t="n">
-        <v>0.5936387777328491</v>
+        <v>0.6094298958778381</v>
       </c>
     </row>
     <row r="65" spans="1:22">
@@ -4848,7 +4848,7 @@
         <v>1.003021001815796</v>
       </c>
       <c r="V65" t="n">
-        <v>0.442499577999115</v>
+        <v>0.4005610942840576</v>
       </c>
     </row>
     <row r="66" spans="1:22">
@@ -4916,7 +4916,7 @@
         <v>0.9027309417724609</v>
       </c>
       <c r="V66" t="n">
-        <v>1.127936363220215</v>
+        <v>0.8876227140426636</v>
       </c>
     </row>
     <row r="67" spans="1:22">
@@ -4984,7 +4984,7 @@
         <v>0.8939568996429443</v>
       </c>
       <c r="V67" t="n">
-        <v>0.3918599784374237</v>
+        <v>0.4768378734588623</v>
       </c>
     </row>
     <row r="68" spans="1:22">
@@ -5052,7 +5052,7 @@
         <v>0.8873119354248047</v>
       </c>
       <c r="V68" t="n">
-        <v>0.4503242373466492</v>
+        <v>0.6086897850036621</v>
       </c>
     </row>
     <row r="69" spans="1:22">
@@ -5120,7 +5120,7 @@
         <v>0.8788712024688721</v>
       </c>
       <c r="V69" t="n">
-        <v>0.3773232698440552</v>
+        <v>0.4554891586303711</v>
       </c>
     </row>
     <row r="70" spans="1:22">
@@ -5188,7 +5188,7 @@
         <v>0.8773040771484375</v>
       </c>
       <c r="V70" t="n">
-        <v>0.9117324352264404</v>
+        <v>0.4718003869056702</v>
       </c>
     </row>
     <row r="71" spans="1:22">
@@ -5256,7 +5256,7 @@
         <v>0.8974218368530273</v>
       </c>
       <c r="V71" t="n">
-        <v>0.3691988289356232</v>
+        <v>0.6051912903785706</v>
       </c>
     </row>
     <row r="72" spans="1:22">
@@ -5324,7 +5324,7 @@
         <v>0.8843009471893311</v>
       </c>
       <c r="V72" t="n">
-        <v>0.4484707713127136</v>
+        <v>0.8805574774742126</v>
       </c>
     </row>
     <row r="73" spans="1:22">
@@ -5392,7 +5392,7 @@
         <v>0.8786149024963379</v>
       </c>
       <c r="V73" t="n">
-        <v>0.4088962078094482</v>
+        <v>0.6563281416893005</v>
       </c>
     </row>
     <row r="74" spans="1:22">
@@ -5460,7 +5460,7 @@
         <v>0.9318070411682129</v>
       </c>
       <c r="V74" t="n">
-        <v>0.8819777965545654</v>
+        <v>0.4222974181175232</v>
       </c>
     </row>
     <row r="75" spans="1:22">
@@ -5528,7 +5528,7 @@
         <v>0.8818371295928955</v>
       </c>
       <c r="V75" t="n">
-        <v>1.128292441368103</v>
+        <v>0.587807834148407</v>
       </c>
     </row>
     <row r="76" spans="1:22">
@@ -5596,7 +5596,7 @@
         <v>0.8789389133453369</v>
       </c>
       <c r="V76" t="n">
-        <v>0.4028351902961731</v>
+        <v>0.477519690990448</v>
       </c>
     </row>
     <row r="77" spans="1:22">
@@ -5664,7 +5664,7 @@
         <v>0.9003469944000244</v>
       </c>
       <c r="V77" t="n">
-        <v>0.3920263051986694</v>
+        <v>0.4227635264396667</v>
       </c>
     </row>
     <row r="78" spans="1:22">
@@ -5732,7 +5732,7 @@
         <v>0.9369490146636963</v>
       </c>
       <c r="V78" t="n">
-        <v>0.4029415547847748</v>
+        <v>0.4843006730079651</v>
       </c>
     </row>
     <row r="79" spans="1:22">
@@ -5800,7 +5800,7 @@
         <v>0.8839180469512939</v>
       </c>
       <c r="V79" t="n">
-        <v>0.8650256395339966</v>
+        <v>0.7839659452438354</v>
       </c>
     </row>
     <row r="80" spans="1:22">
@@ -5868,7 +5868,7 @@
         <v>0.8740348815917969</v>
       </c>
       <c r="V80" t="n">
-        <v>0.8507328033447266</v>
+        <v>0.5881173610687256</v>
       </c>
     </row>
     <row r="81" spans="1:22">
@@ -5936,7 +5936,7 @@
         <v>0.878889799118042</v>
       </c>
       <c r="V81" t="n">
-        <v>0.4331822395324707</v>
+        <v>0.4851488471031189</v>
       </c>
     </row>
     <row r="82" spans="1:22">
@@ -6004,7 +6004,7 @@
         <v>0.6107220649719238</v>
       </c>
       <c r="V82" t="n">
-        <v>0.4976146221160889</v>
+        <v>0.7040767669677734</v>
       </c>
     </row>
     <row r="83" spans="1:22">
@@ -6072,7 +6072,7 @@
         <v>0.5351009368896484</v>
       </c>
       <c r="V83" t="n">
-        <v>0.8586997985839844</v>
+        <v>0.8822028636932373</v>
       </c>
     </row>
     <row r="84" spans="1:22">
@@ -6140,7 +6140,7 @@
         <v>0.5319771766662598</v>
       </c>
       <c r="V84" t="n">
-        <v>0.492934912443161</v>
+        <v>0.8854296207427979</v>
       </c>
     </row>
     <row r="85" spans="1:22">
@@ -6208,7 +6208,7 @@
         <v>0.5300149917602539</v>
       </c>
       <c r="V85" t="n">
-        <v>0.4469967782497406</v>
+        <v>0.6954771280288696</v>
       </c>
     </row>
     <row r="86" spans="1:22">
@@ -6276,7 +6276,7 @@
         <v>0.5222859382629395</v>
       </c>
       <c r="V86" t="n">
-        <v>0.8492410778999329</v>
+        <v>0.6464481353759766</v>
       </c>
     </row>
     <row r="87" spans="1:22">
@@ -6344,7 +6344,7 @@
         <v>0.5271379947662354</v>
       </c>
       <c r="V87" t="n">
-        <v>0.6646535992622375</v>
+        <v>0.5552331805229187</v>
       </c>
     </row>
     <row r="88" spans="1:22">
@@ -6412,7 +6412,7 @@
         <v>0.5315499305725098</v>
       </c>
       <c r="V88" t="n">
-        <v>0.4025124907493591</v>
+        <v>0.4427711367607117</v>
       </c>
     </row>
     <row r="89" spans="1:22">
@@ -6480,7 +6480,7 @@
         <v>0.5334780216217041</v>
       </c>
       <c r="V89" t="n">
-        <v>0.3992782533168793</v>
+        <v>0.4223676919937134</v>
       </c>
     </row>
     <row r="90" spans="1:22">
@@ -6548,7 +6548,7 @@
         <v>0.5340180397033691</v>
       </c>
       <c r="V90" t="n">
-        <v>0.4425179958343506</v>
+        <v>0.3671503067016602</v>
       </c>
     </row>
     <row r="91" spans="1:22">
@@ -6616,7 +6616,7 @@
         <v>0.531419038772583</v>
       </c>
       <c r="V91" t="n">
-        <v>0.5935662984848022</v>
+        <v>0.7011902928352356</v>
       </c>
     </row>
     <row r="92" spans="1:22">
@@ -6684,7 +6684,7 @@
         <v>0.5320870876312256</v>
       </c>
       <c r="V92" t="n">
-        <v>0.4949062466621399</v>
+        <v>0.4802040457725525</v>
       </c>
     </row>
     <row r="93" spans="1:22">
@@ -6752,7 +6752,7 @@
         <v>0.535567045211792</v>
       </c>
       <c r="V93" t="n">
-        <v>0.4030638337135315</v>
+        <v>0.4030694961547852</v>
       </c>
     </row>
     <row r="94" spans="1:22">
@@ -6820,7 +6820,7 @@
         <v>0.5251190662384033</v>
       </c>
       <c r="V94" t="n">
-        <v>0.4090730547904968</v>
+        <v>0.537911593914032</v>
       </c>
     </row>
     <row r="95" spans="1:22">
@@ -6888,7 +6888,7 @@
         <v>0.5292398929595947</v>
       </c>
       <c r="V95" t="n">
-        <v>0.4819122552871704</v>
+        <v>0.6536902785301208</v>
       </c>
     </row>
     <row r="96" spans="1:22">
@@ -6956,7 +6956,7 @@
         <v>0.5305531024932861</v>
       </c>
       <c r="V96" t="n">
-        <v>0.4811463952064514</v>
+        <v>0.5580369234085083</v>
       </c>
     </row>
     <row r="97" spans="1:22">
@@ -7024,7 +7024,7 @@
         <v>0.5304639339447021</v>
       </c>
       <c r="V97" t="n">
-        <v>0.5113195180892944</v>
+        <v>0.4796501398086548</v>
       </c>
     </row>
     <row r="98" spans="1:22">
@@ -7092,7 +7092,7 @@
         <v>0.5783541202545166</v>
       </c>
       <c r="V98" t="n">
-        <v>0.3920888602733612</v>
+        <v>0.590424120426178</v>
       </c>
     </row>
     <row r="99" spans="1:22">
@@ -7160,7 +7160,7 @@
         <v>0.5288350582122803</v>
       </c>
       <c r="V99" t="n">
-        <v>0.4812451004981995</v>
+        <v>0.6485797166824341</v>
       </c>
     </row>
     <row r="100" spans="1:22">
@@ -7228,7 +7228,7 @@
         <v>0.5300018787384033</v>
       </c>
       <c r="V100" t="n">
-        <v>0.3999709486961365</v>
+        <v>0.3609596490859985</v>
       </c>
     </row>
     <row r="101" spans="1:22">
@@ -7296,7 +7296,7 @@
         <v>0.5334467887878418</v>
       </c>
       <c r="V101" t="n">
-        <v>0.884137749671936</v>
+        <v>0.4207318425178528</v>
       </c>
     </row>
     <row r="102" spans="1:22">
@@ -7364,7 +7364,7 @@
         <v>0.4135949611663818</v>
       </c>
       <c r="V102" t="n">
-        <v>1.122922778129578</v>
+        <v>0.4229405522346497</v>
       </c>
     </row>
     <row r="103" spans="1:22">
@@ -7432,7 +7432,7 @@
         <v>0.4203581809997559</v>
       </c>
       <c r="V103" t="n">
-        <v>0.5699291229248047</v>
+        <v>0.438488781452179</v>
       </c>
     </row>
     <row r="104" spans="1:22">
@@ -7500,7 +7500,7 @@
         <v>0.4076690673828125</v>
       </c>
       <c r="V104" t="n">
-        <v>0.9269005656242371</v>
+        <v>0.8004910945892334</v>
       </c>
     </row>
     <row r="105" spans="1:22">
@@ -7568,7 +7568,7 @@
         <v>0.4117300510406494</v>
       </c>
       <c r="V105" t="n">
-        <v>0.5932704210281372</v>
+        <v>0.7899690866470337</v>
       </c>
     </row>
     <row r="106" spans="1:22">
@@ -7636,7 +7636,7 @@
         <v>0.3982830047607422</v>
       </c>
       <c r="V106" t="n">
-        <v>0.4089227914810181</v>
+        <v>0.4837238192558289</v>
       </c>
     </row>
     <row r="107" spans="1:22">
@@ -7704,7 +7704,7 @@
         <v>0.3995699882507324</v>
       </c>
       <c r="V107" t="n">
-        <v>0.383881539106369</v>
+        <v>0.36097651720047</v>
       </c>
     </row>
     <row r="108" spans="1:22">
@@ -7772,7 +7772,7 @@
         <v>0.3960738182067871</v>
       </c>
       <c r="V108" t="n">
-        <v>1.141915082931519</v>
+        <v>0.5570175051689148</v>
       </c>
     </row>
     <row r="109" spans="1:22">
@@ -7840,7 +7840,7 @@
         <v>0.4147820472717285</v>
       </c>
       <c r="V109" t="n">
-        <v>0.5010764598846436</v>
+        <v>0.6282039284706116</v>
       </c>
     </row>
     <row r="110" spans="1:22">
@@ -7908,7 +7908,7 @@
         <v>0.3983039855957031</v>
       </c>
       <c r="V110" t="n">
-        <v>0.4293858408927917</v>
+        <v>0.5912466049194336</v>
       </c>
     </row>
     <row r="111" spans="1:22">
@@ -7976,7 +7976,7 @@
         <v>0.4013969898223877</v>
       </c>
       <c r="V111" t="n">
-        <v>0.4964625239372253</v>
+        <v>0.4211025238037109</v>
       </c>
     </row>
     <row r="112" spans="1:22">
@@ -8044,7 +8044,7 @@
         <v>0.4056260585784912</v>
       </c>
       <c r="V112" t="n">
-        <v>0.6628782749176025</v>
+        <v>0.7898924350738525</v>
       </c>
     </row>
     <row r="113" spans="1:22">
@@ -8112,7 +8112,7 @@
         <v>0.3991959095001221</v>
       </c>
       <c r="V113" t="n">
-        <v>0.4844822287559509</v>
+        <v>0.6980137825012207</v>
       </c>
     </row>
     <row r="114" spans="1:22">
@@ -8180,7 +8180,7 @@
         <v>0.401115894317627</v>
       </c>
       <c r="V114" t="n">
-        <v>0.4863503575325012</v>
+        <v>0.3609535694122314</v>
       </c>
     </row>
     <row r="115" spans="1:22">
@@ -8248,7 +8248,7 @@
         <v>0.3997581005096436</v>
       </c>
       <c r="V115" t="n">
-        <v>0.8864078521728516</v>
+        <v>0.3868059515953064</v>
       </c>
     </row>
     <row r="116" spans="1:22">
@@ -8316,7 +8316,7 @@
         <v>0.4026870727539062</v>
       </c>
       <c r="V116" t="n">
-        <v>0.4551710188388824</v>
+        <v>0.5881587862968445</v>
       </c>
     </row>
     <row r="117" spans="1:22">
@@ -8384,7 +8384,7 @@
         <v>0.4104290008544922</v>
       </c>
       <c r="V117" t="n">
-        <v>1.124247312545776</v>
+        <v>0.5380626916885376</v>
       </c>
     </row>
     <row r="118" spans="1:22">
@@ -8452,7 +8452,7 @@
         <v>0.4057800769805908</v>
       </c>
       <c r="V118" t="n">
-        <v>0.8862313628196716</v>
+        <v>0.3666130304336548</v>
       </c>
     </row>
     <row r="119" spans="1:22">
@@ -8520,7 +8520,7 @@
         <v>0.3966670036315918</v>
       </c>
       <c r="V119" t="n">
-        <v>0.4832030236721039</v>
+        <v>0.6984093189239502</v>
       </c>
     </row>
     <row r="120" spans="1:22">
@@ -8588,7 +8588,7 @@
         <v>0.4050350189208984</v>
       </c>
       <c r="V120" t="n">
-        <v>0.4455365538597107</v>
+        <v>0.5379091501235962</v>
       </c>
     </row>
     <row r="121" spans="1:22">
@@ -8656,7 +8656,7 @@
         <v>0.4038529396057129</v>
       </c>
       <c r="V121" t="n">
-        <v>0.5118969082832336</v>
+        <v>0.4552754163742065</v>
       </c>
     </row>
     <row r="122" spans="1:22">
@@ -8724,7 +8724,7 @@
         <v>0.8896141052246094</v>
       </c>
       <c r="V122" t="n">
-        <v>0.3969320356845856</v>
+        <v>0.8854069709777832</v>
       </c>
     </row>
     <row r="123" spans="1:22">
@@ -8792,7 +8792,7 @@
         <v>0.906566858291626</v>
       </c>
       <c r="V123" t="n">
-        <v>0.4090712666511536</v>
+        <v>0.3786981105804443</v>
       </c>
     </row>
     <row r="124" spans="1:22">
@@ -8860,7 +8860,7 @@
         <v>0.8737847805023193</v>
       </c>
       <c r="V124" t="n">
-        <v>0.3982409834861755</v>
+        <v>0.5378825664520264</v>
       </c>
     </row>
     <row r="125" spans="1:22">
@@ -8928,7 +8928,7 @@
         <v>0.9282269477844238</v>
       </c>
       <c r="V125" t="n">
-        <v>0.4921606183052063</v>
+        <v>0.5379722714424133</v>
       </c>
     </row>
     <row r="126" spans="1:22">
@@ -8996,7 +8996,7 @@
         <v>0.8831160068511963</v>
       </c>
       <c r="V126" t="n">
-        <v>0.8854432106018066</v>
+        <v>0.64891517162323</v>
       </c>
     </row>
     <row r="127" spans="1:22">
@@ -9064,7 +9064,7 @@
         <v>0.9013409614562988</v>
       </c>
       <c r="V127" t="n">
-        <v>0.4090926051139832</v>
+        <v>0.7903261780738831</v>
       </c>
     </row>
     <row r="128" spans="1:22">
@@ -9132,7 +9132,7 @@
         <v>0.8755838871002197</v>
       </c>
       <c r="V128" t="n">
-        <v>0.39742711186409</v>
+        <v>0.6181443929672241</v>
       </c>
     </row>
     <row r="129" spans="1:22">
@@ -9200,7 +9200,7 @@
         <v>0.9365639686584473</v>
       </c>
       <c r="V129" t="n">
-        <v>0.4820723831653595</v>
+        <v>0.6587436199188232</v>
       </c>
     </row>
     <row r="130" spans="1:22">
@@ -9268,7 +9268,7 @@
         <v>0.9395790100097656</v>
       </c>
       <c r="V130" t="n">
-        <v>1.142470717430115</v>
+        <v>0.5378978252410889</v>
       </c>
     </row>
     <row r="131" spans="1:22">
@@ -9336,7 +9336,7 @@
         <v>0.8820738792419434</v>
       </c>
       <c r="V131" t="n">
-        <v>0.4030323028564453</v>
+        <v>0.438521683216095</v>
       </c>
     </row>
     <row r="132" spans="1:22">
@@ -9404,7 +9404,7 @@
         <v>0.8853549957275391</v>
       </c>
       <c r="V132" t="n">
-        <v>0.4494026899337769</v>
+        <v>0.4068009853363037</v>
       </c>
     </row>
     <row r="133" spans="1:22">
@@ -9472,7 +9472,7 @@
         <v>0.9771230220794678</v>
       </c>
       <c r="V133" t="n">
-        <v>0.5038633942604065</v>
+        <v>0.5538752675056458</v>
       </c>
     </row>
     <row r="134" spans="1:22">
@@ -9540,7 +9540,7 @@
         <v>0.9092328548431396</v>
       </c>
       <c r="V134" t="n">
-        <v>0.4030401408672333</v>
+        <v>0.5905375480651855</v>
       </c>
     </row>
     <row r="135" spans="1:22">
@@ -9608,7 +9608,7 @@
         <v>0.8951380252838135</v>
       </c>
       <c r="V135" t="n">
-        <v>0.5225790739059448</v>
+        <v>0.4384209513664246</v>
       </c>
     </row>
     <row r="136" spans="1:22">
@@ -9676,7 +9676,7 @@
         <v>0.8852920532226562</v>
       </c>
       <c r="V136" t="n">
-        <v>0.5933290719985962</v>
+        <v>0.5915652513504028</v>
       </c>
     </row>
     <row r="137" spans="1:22">
@@ -9744,7 +9744,7 @@
         <v>0.9334981441497803</v>
       </c>
       <c r="V137" t="n">
-        <v>0.8858935236930847</v>
+        <v>0.6240726113319397</v>
       </c>
     </row>
     <row r="138" spans="1:22">
@@ -9812,7 +9812,7 @@
         <v>0.8817300796508789</v>
       </c>
       <c r="V138" t="n">
-        <v>0.8839715123176575</v>
+        <v>0.8844614028930664</v>
       </c>
     </row>
     <row r="139" spans="1:22">
@@ -9880,7 +9880,7 @@
         <v>0.877946138381958</v>
       </c>
       <c r="V139" t="n">
-        <v>0.4023644328117371</v>
+        <v>0.7958468198776245</v>
       </c>
     </row>
     <row r="140" spans="1:22">
@@ -9948,7 +9948,7 @@
         <v>0.8788509368896484</v>
       </c>
       <c r="V140" t="n">
-        <v>0.8478003144264221</v>
+        <v>0.4834600687026978</v>
       </c>
     </row>
     <row r="141" spans="1:22">
@@ -10016,7 +10016,7 @@
         <v>0.8856711387634277</v>
       </c>
       <c r="V141" t="n">
-        <v>0.8491673469543457</v>
+        <v>0.703600287437439</v>
       </c>
     </row>
     <row r="142" spans="1:22">
@@ -10084,7 +10084,7 @@
         <v>0.539654016494751</v>
       </c>
       <c r="V142" t="n">
-        <v>0.5116130709648132</v>
+        <v>0.4038267731666565</v>
       </c>
     </row>
     <row r="143" spans="1:22">
@@ -10152,7 +10152,7 @@
         <v>0.5301709175109863</v>
       </c>
       <c r="V143" t="n">
-        <v>0.5021244883537292</v>
+        <v>0.6086816191673279</v>
       </c>
     </row>
     <row r="144" spans="1:22">
@@ -10220,7 +10220,7 @@
         <v>0.533066987991333</v>
       </c>
       <c r="V144" t="n">
-        <v>0.5678593516349792</v>
+        <v>0.8822290897369385</v>
       </c>
     </row>
     <row r="145" spans="1:22">
@@ -10288,7 +10288,7 @@
         <v>0.5278267860412598</v>
       </c>
       <c r="V145" t="n">
-        <v>0.497727632522583</v>
+        <v>0.4770028591156006</v>
       </c>
     </row>
     <row r="146" spans="1:22">
@@ -10356,7 +10356,7 @@
         <v>0.530515193939209</v>
       </c>
       <c r="V146" t="n">
-        <v>0.377058357000351</v>
+        <v>0.4425503611564636</v>
       </c>
     </row>
     <row r="147" spans="1:22">
@@ -10424,7 +10424,7 @@
         <v>0.5385630130767822</v>
       </c>
       <c r="V147" t="n">
-        <v>0.9762388467788696</v>
+        <v>0.3610076904296875</v>
       </c>
     </row>
     <row r="148" spans="1:22">
@@ -10492,7 +10492,7 @@
         <v>0.5337851047515869</v>
       </c>
       <c r="V148" t="n">
-        <v>0.3774758875370026</v>
+        <v>0.7097801566123962</v>
       </c>
     </row>
     <row r="149" spans="1:22">
@@ -10560,7 +10560,7 @@
         <v>0.5306360721588135</v>
       </c>
       <c r="V149" t="n">
-        <v>0.8730201721191406</v>
+        <v>0.4226563572883606</v>
       </c>
     </row>
     <row r="150" spans="1:22">
@@ -10628,7 +10628,7 @@
         <v>0.529973030090332</v>
       </c>
       <c r="V150" t="n">
-        <v>0.5937590599060059</v>
+        <v>0.7040725350379944</v>
       </c>
     </row>
     <row r="151" spans="1:22">
@@ -10696,7 +10696,7 @@
         <v>0.55051589012146</v>
       </c>
       <c r="V151" t="n">
-        <v>0.8843367695808411</v>
+        <v>0.5854825973510742</v>
       </c>
     </row>
     <row r="152" spans="1:22">
@@ -10764,7 +10764,7 @@
         <v>0.5510158538818359</v>
       </c>
       <c r="V152" t="n">
-        <v>0.4949773550033569</v>
+        <v>0.4792518615722656</v>
       </c>
     </row>
     <row r="153" spans="1:22">
@@ -10832,7 +10832,7 @@
         <v>0.5294108390808105</v>
       </c>
       <c r="V153" t="n">
-        <v>0.3952805399894714</v>
+        <v>0.4757353663444519</v>
       </c>
     </row>
     <row r="154" spans="1:22">
@@ -10900,7 +10900,7 @@
         <v>0.5271210670471191</v>
       </c>
       <c r="V154" t="n">
-        <v>0.4841431677341461</v>
+        <v>0.4211356043815613</v>
       </c>
     </row>
     <row r="155" spans="1:22">
@@ -10968,7 +10968,7 @@
         <v>0.5299139022827148</v>
       </c>
       <c r="V155" t="n">
-        <v>0.4548656046390533</v>
+        <v>0.4035907387733459</v>
       </c>
     </row>
     <row r="156" spans="1:22">
@@ -11036,7 +11036,7 @@
         <v>0.583341121673584</v>
       </c>
       <c r="V156" t="n">
-        <v>0.8501887321472168</v>
+        <v>0.5380772948265076</v>
       </c>
     </row>
     <row r="157" spans="1:22">
@@ -11104,7 +11104,7 @@
         <v>0.532667875289917</v>
       </c>
       <c r="V157" t="n">
-        <v>0.8848799467086792</v>
+        <v>0.6075578927993774</v>
       </c>
     </row>
     <row r="158" spans="1:22">
@@ -11172,7 +11172,7 @@
         <v>0.5350229740142822</v>
       </c>
       <c r="V158" t="n">
-        <v>1.123441696166992</v>
+        <v>0.4765533804893494</v>
       </c>
     </row>
     <row r="159" spans="1:22">
@@ -11240,7 +11240,7 @@
         <v>0.5340468883514404</v>
       </c>
       <c r="V159" t="n">
-        <v>0.3924391567707062</v>
+        <v>0.4398151040077209</v>
       </c>
     </row>
     <row r="160" spans="1:22">
@@ -11308,7 +11308,7 @@
         <v>0.5316998958587646</v>
       </c>
       <c r="V160" t="n">
-        <v>1.128738164901733</v>
+        <v>0.5379217863082886</v>
       </c>
     </row>
     <row r="161" spans="1:22">
@@ -11376,7 +11376,7 @@
         <v>0.5935299396514893</v>
       </c>
       <c r="V161" t="n">
-        <v>1.109331011772156</v>
+        <v>0.4902856349945068</v>
       </c>
     </row>
     <row r="162" spans="1:22">
@@ -11444,7 +11444,7 @@
         <v>0.4093868732452393</v>
       </c>
       <c r="V162" t="n">
-        <v>0.8873895406723022</v>
+        <v>0.3887149095535278</v>
       </c>
     </row>
     <row r="163" spans="1:22">
@@ -11512,7 +11512,7 @@
         <v>0.4065051078796387</v>
       </c>
       <c r="V163" t="n">
-        <v>0.4029525816440582</v>
+        <v>0.6077598333358765</v>
       </c>
     </row>
     <row r="164" spans="1:22">
@@ -11580,7 +11580,7 @@
         <v>0.3991808891296387</v>
       </c>
       <c r="V164" t="n">
-        <v>0.3974567651748657</v>
+        <v>0.4223563671112061</v>
       </c>
     </row>
     <row r="165" spans="1:22">
@@ -11648,7 +11648,7 @@
         <v>0.4052278995513916</v>
       </c>
       <c r="V165" t="n">
-        <v>0.5934371948242188</v>
+        <v>0.689443826675415</v>
       </c>
     </row>
     <row r="166" spans="1:22">
@@ -11716,7 +11716,7 @@
         <v>0.4011631011962891</v>
       </c>
       <c r="V166" t="n">
-        <v>0.3986614048480988</v>
+        <v>0.5659052133560181</v>
       </c>
     </row>
     <row r="167" spans="1:22">
@@ -11784,7 +11784,7 @@
         <v>0.4490811824798584</v>
       </c>
       <c r="V167" t="n">
-        <v>0.4179785847663879</v>
+        <v>0.5887453556060791</v>
       </c>
     </row>
     <row r="168" spans="1:22">
@@ -11852,7 +11852,7 @@
         <v>0.4015998840332031</v>
       </c>
       <c r="V168" t="n">
-        <v>0.8567419052124023</v>
+        <v>0.3609938621520996</v>
       </c>
     </row>
     <row r="169" spans="1:22">
@@ -11920,7 +11920,7 @@
         <v>0.4047849178314209</v>
       </c>
       <c r="V169" t="n">
-        <v>0.4181340038776398</v>
+        <v>0.3609108924865723</v>
       </c>
     </row>
     <row r="170" spans="1:22">
@@ -11988,7 +11988,7 @@
         <v>0.4026010036468506</v>
       </c>
       <c r="V170" t="n">
-        <v>0.6645547747612</v>
+        <v>0.6487356424331665</v>
       </c>
     </row>
     <row r="171" spans="1:22">
@@ -12056,7 +12056,7 @@
         <v>0.401104211807251</v>
       </c>
       <c r="V171" t="n">
-        <v>0.5936589241027832</v>
+        <v>0.3609158396720886</v>
       </c>
     </row>
     <row r="172" spans="1:22">
@@ -12124,7 +12124,7 @@
         <v>0.4033920764923096</v>
       </c>
       <c r="V172" t="n">
-        <v>0.3937713801860809</v>
+        <v>0.4224058389663696</v>
       </c>
     </row>
     <row r="173" spans="1:22">
@@ -12192,7 +12192,7 @@
         <v>0.4314339160919189</v>
       </c>
       <c r="V173" t="n">
-        <v>0.5936504006385803</v>
+        <v>0.6490487456321716</v>
       </c>
     </row>
     <row r="174" spans="1:22">
@@ -12260,7 +12260,7 @@
         <v>0.4098010063171387</v>
       </c>
       <c r="V174" t="n">
-        <v>0.3770086169242859</v>
+        <v>0.5887073874473572</v>
       </c>
     </row>
     <row r="175" spans="1:22">
@@ -12328,7 +12328,7 @@
         <v>0.4046478271484375</v>
       </c>
       <c r="V175" t="n">
-        <v>0.3949371874332428</v>
+        <v>0.6095840334892273</v>
       </c>
     </row>
     <row r="176" spans="1:22">
@@ -12396,7 +12396,7 @@
         <v>0.4040770530700684</v>
       </c>
       <c r="V176" t="n">
-        <v>0.8460664749145508</v>
+        <v>0.401404857635498</v>
       </c>
     </row>
     <row r="177" spans="1:22">
@@ -12464,7 +12464,7 @@
         <v>0.4129810333251953</v>
       </c>
       <c r="V177" t="n">
-        <v>0.4187806844711304</v>
+        <v>0.5378779172897339</v>
       </c>
     </row>
     <row r="178" spans="1:22">
@@ -12532,7 +12532,7 @@
         <v>0.4443020820617676</v>
       </c>
       <c r="V178" t="n">
-        <v>0.5028312206268311</v>
+        <v>0.4225040078163147</v>
       </c>
     </row>
     <row r="179" spans="1:22">
@@ -12600,7 +12600,7 @@
         <v>0.4889922142028809</v>
       </c>
       <c r="V179" t="n">
-        <v>0.4917311668395996</v>
+        <v>0.4712569713592529</v>
       </c>
     </row>
     <row r="180" spans="1:22">
@@ -12668,7 +12668,7 @@
         <v>0.4019980430603027</v>
       </c>
       <c r="V180" t="n">
-        <v>0.3953441977500916</v>
+        <v>0.4870217442512512</v>
       </c>
     </row>
     <row r="181" spans="1:22">
@@ -12736,7 +12736,7 @@
         <v>0.4092979431152344</v>
       </c>
       <c r="V181" t="n">
-        <v>1.108066439628601</v>
+        <v>0.480150043964386</v>
       </c>
     </row>
     <row r="182" spans="1:22">
@@ -12804,7 +12804,7 @@
         <v>0.891876220703125</v>
       </c>
       <c r="V182" t="n">
-        <v>0.5021546483039856</v>
+        <v>0.3611395955085754</v>
       </c>
     </row>
     <row r="183" spans="1:22">
@@ -12872,7 +12872,7 @@
         <v>0.8808250427246094</v>
       </c>
       <c r="V183" t="n">
-        <v>0.4857578575611115</v>
+        <v>0.4888110160827637</v>
       </c>
     </row>
     <row r="184" spans="1:22">
@@ -12940,7 +12940,7 @@
         <v>0.913067102432251</v>
       </c>
       <c r="V184" t="n">
-        <v>0.3950664699077606</v>
+        <v>0.3610337376594543</v>
       </c>
     </row>
     <row r="185" spans="1:22">
@@ -13008,7 +13008,7 @@
         <v>0.8929059505462646</v>
       </c>
       <c r="V185" t="n">
-        <v>0.593532383441925</v>
+        <v>0.4788762331008911</v>
       </c>
     </row>
     <row r="186" spans="1:22">
@@ -13076,7 +13076,7 @@
         <v>0.9277229309082031</v>
       </c>
       <c r="V186" t="n">
-        <v>0.3926255106925964</v>
+        <v>0.6556221842765808</v>
       </c>
     </row>
     <row r="187" spans="1:22">
@@ -13144,7 +13144,7 @@
         <v>0.9063000679016113</v>
       </c>
       <c r="V187" t="n">
-        <v>0.4219502210617065</v>
+        <v>0.4408711791038513</v>
       </c>
     </row>
     <row r="188" spans="1:22">
@@ -13212,7 +13212,7 @@
         <v>0.8852560520172119</v>
       </c>
       <c r="V188" t="n">
-        <v>0.5936089754104614</v>
+        <v>0.48039710521698</v>
       </c>
     </row>
     <row r="189" spans="1:22">
@@ -13280,7 +13280,7 @@
         <v>0.8886961936950684</v>
       </c>
       <c r="V189" t="n">
-        <v>0.8762049078941345</v>
+        <v>0.4805735945701599</v>
       </c>
     </row>
     <row r="190" spans="1:22">
@@ -13348,7 +13348,7 @@
         <v>0.8827528953552246</v>
       </c>
       <c r="V190" t="n">
-        <v>0.8526901602745056</v>
+        <v>0.5620260834693909</v>
       </c>
     </row>
     <row r="191" spans="1:22">
@@ -13416,7 +13416,7 @@
         <v>0.9401040077209473</v>
       </c>
       <c r="V191" t="n">
-        <v>0.5934684276580811</v>
+        <v>0.5379284620285034</v>
       </c>
     </row>
     <row r="192" spans="1:22">
@@ -13484,7 +13484,7 @@
         <v>0.8825490474700928</v>
       </c>
       <c r="V192" t="n">
-        <v>0.4819600582122803</v>
+        <v>0.422416090965271</v>
       </c>
     </row>
     <row r="193" spans="1:22">
@@ -13552,7 +13552,7 @@
         <v>0.8858850002288818</v>
       </c>
       <c r="V193" t="n">
-        <v>0.4839378893375397</v>
+        <v>0.5379790663719177</v>
       </c>
     </row>
     <row r="194" spans="1:22">
@@ -13620,7 +13620,7 @@
         <v>0.8831770420074463</v>
       </c>
       <c r="V194" t="n">
-        <v>0.4818736016750336</v>
+        <v>0.6894387602806091</v>
       </c>
     </row>
     <row r="195" spans="1:22">
@@ -13688,7 +13688,7 @@
         <v>0.9418988227844238</v>
       </c>
       <c r="V195" t="n">
-        <v>0.851016640663147</v>
+        <v>0.6840715408325195</v>
       </c>
     </row>
     <row r="196" spans="1:22">
@@ -13756,7 +13756,7 @@
         <v>0.8837671279907227</v>
       </c>
       <c r="V196" t="n">
-        <v>0.8575076460838318</v>
+        <v>0.4849292635917664</v>
       </c>
     </row>
     <row r="197" spans="1:22">
@@ -13824,7 +13824,7 @@
         <v>0.8807148933410645</v>
       </c>
       <c r="V197" t="n">
-        <v>0.510530948638916</v>
+        <v>0.3609372973442078</v>
       </c>
     </row>
     <row r="198" spans="1:22">
@@ -13892,7 +13892,7 @@
         <v>0.8814489841461182</v>
       </c>
       <c r="V198" t="n">
-        <v>1.121527552604675</v>
+        <v>0.5612205266952515</v>
       </c>
     </row>
     <row r="199" spans="1:22">
@@ -13960,7 +13960,7 @@
         <v>0.9411418437957764</v>
       </c>
       <c r="V199" t="n">
-        <v>0.5702133178710938</v>
+        <v>0.5879279971122742</v>
       </c>
     </row>
     <row r="200" spans="1:22">
@@ -14028,7 +14028,7 @@
         <v>0.8811769485473633</v>
       </c>
       <c r="V200" t="n">
-        <v>0.8662525415420532</v>
+        <v>0.4550826549530029</v>
       </c>
     </row>
     <row r="201" spans="1:22">
@@ -14096,7 +14096,7 @@
         <v>0.8956382274627686</v>
       </c>
       <c r="V201" t="n">
-        <v>0.8870527744293213</v>
+        <v>0.4228060841560364</v>
       </c>
     </row>
     <row r="202" spans="1:22">
@@ -14164,7 +14164,7 @@
         <v>0.5340750217437744</v>
       </c>
       <c r="V202" t="n">
-        <v>0.4923634231090546</v>
+        <v>0.6058166027069092</v>
       </c>
     </row>
     <row r="203" spans="1:22">
@@ -14232,7 +14232,7 @@
         <v>0.5280799865722656</v>
       </c>
       <c r="V203" t="n">
-        <v>0.8976949453353882</v>
+        <v>0.6571362614631653</v>
       </c>
     </row>
     <row r="204" spans="1:22">
@@ -14300,7 +14300,7 @@
         <v>0.55855393409729</v>
       </c>
       <c r="V204" t="n">
-        <v>0.4819691777229309</v>
+        <v>0.4226717352867126</v>
       </c>
     </row>
     <row r="205" spans="1:22">
@@ -14368,7 +14368,7 @@
         <v>0.5331411361694336</v>
       </c>
       <c r="V205" t="n">
-        <v>1.125148177146912</v>
+        <v>0.3859796524047852</v>
       </c>
     </row>
     <row r="206" spans="1:22">
@@ -14436,7 +14436,7 @@
         <v>0.5327358245849609</v>
       </c>
       <c r="V206" t="n">
-        <v>0.4185463786125183</v>
+        <v>0.4228395819664001</v>
       </c>
     </row>
     <row r="207" spans="1:22">
@@ -14504,7 +14504,7 @@
         <v>0.5310330390930176</v>
       </c>
       <c r="V207" t="n">
-        <v>0.8681901097297668</v>
+        <v>0.7101702690124512</v>
       </c>
     </row>
     <row r="208" spans="1:22">
@@ -14572,7 +14572,7 @@
         <v>0.5280430316925049</v>
       </c>
       <c r="V208" t="n">
-        <v>0.3840605318546295</v>
+        <v>0.4212579131126404</v>
       </c>
     </row>
     <row r="209" spans="1:22">
@@ -14640,7 +14640,7 @@
         <v>0.5312619209289551</v>
       </c>
       <c r="V209" t="n">
-        <v>0.4029026925563812</v>
+        <v>0.4923393726348877</v>
       </c>
     </row>
     <row r="210" spans="1:22">
@@ -14708,7 +14708,7 @@
         <v>0.5441038608551025</v>
       </c>
       <c r="V210" t="n">
-        <v>0.5027487277984619</v>
+        <v>0.4868853092193604</v>
       </c>
     </row>
     <row r="211" spans="1:22">
@@ -14776,7 +14776,7 @@
         <v>0.5353600978851318</v>
       </c>
       <c r="V211" t="n">
-        <v>0.8734434247016907</v>
+        <v>0.3657307028770447</v>
       </c>
     </row>
     <row r="212" spans="1:22">
@@ -14844,7 +14844,7 @@
         <v>0.5355451107025146</v>
       </c>
       <c r="V212" t="n">
-        <v>0.4029385447502136</v>
+        <v>0.4211761355400085</v>
       </c>
     </row>
     <row r="213" spans="1:22">
@@ -14912,7 +14912,7 @@
         <v>0.532059907913208</v>
       </c>
       <c r="V213" t="n">
-        <v>1.128533601760864</v>
+        <v>0.7962723970413208</v>
       </c>
     </row>
     <row r="214" spans="1:22">
@@ -14980,7 +14980,7 @@
         <v>0.5883300304412842</v>
       </c>
       <c r="V214" t="n">
-        <v>1.125622630119324</v>
+        <v>0.4802520871162415</v>
       </c>
     </row>
     <row r="215" spans="1:22">
@@ -15048,7 +15048,7 @@
         <v>0.5338649749755859</v>
       </c>
       <c r="V215" t="n">
-        <v>0.9756178855895996</v>
+        <v>0.5379660129547119</v>
       </c>
     </row>
     <row r="216" spans="1:22">
@@ -15116,7 +15116,7 @@
         <v>0.5369060039520264</v>
       </c>
       <c r="V216" t="n">
-        <v>0.5124008655548096</v>
+        <v>0.6179987788200378</v>
       </c>
     </row>
     <row r="217" spans="1:22">
@@ -15184,7 +15184,7 @@
         <v>0.5312070846557617</v>
       </c>
       <c r="V217" t="n">
-        <v>0.8652474880218506</v>
+        <v>0.3609561920166016</v>
       </c>
     </row>
     <row r="218" spans="1:22">
@@ -15252,7 +15252,7 @@
         <v>0.5312271118164062</v>
       </c>
       <c r="V218" t="n">
-        <v>0.5937053561210632</v>
+        <v>0.5378905534744263</v>
       </c>
     </row>
     <row r="219" spans="1:22">
@@ -15320,7 +15320,7 @@
         <v>0.5899190902709961</v>
       </c>
       <c r="V219" t="n">
-        <v>0.4016681313514709</v>
+        <v>0.5692344903945923</v>
       </c>
     </row>
     <row r="220" spans="1:22">
@@ -15388,7 +15388,7 @@
         <v>0.5367641448974609</v>
       </c>
       <c r="V220" t="n">
-        <v>0.4947505593299866</v>
+        <v>0.3671593070030212</v>
       </c>
     </row>
     <row r="221" spans="1:22">
@@ -15456,7 +15456,7 @@
         <v>0.5353620052337646</v>
       </c>
       <c r="V221" t="n">
-        <v>0.4926605522632599</v>
+        <v>0.4890546202659607</v>
       </c>
     </row>
     <row r="222" spans="1:22">
@@ -15524,7 +15524,7 @@
         <v>0.3991918563842773</v>
       </c>
       <c r="V222" t="n">
-        <v>0.3697011470794678</v>
+        <v>0.5903171300888062</v>
       </c>
     </row>
     <row r="223" spans="1:22">
@@ -15592,7 +15592,7 @@
         <v>0.3988630771636963</v>
       </c>
       <c r="V223" t="n">
-        <v>0.4090261459350586</v>
+        <v>0.378571629524231</v>
       </c>
     </row>
     <row r="224" spans="1:22">
@@ -15660,7 +15660,7 @@
         <v>0.4080910682678223</v>
       </c>
       <c r="V224" t="n">
-        <v>0.4956007301807404</v>
+        <v>0.5611301064491272</v>
       </c>
     </row>
     <row r="225" spans="1:22">
@@ -15728,7 +15728,7 @@
         <v>0.4009909629821777</v>
       </c>
       <c r="V225" t="n">
-        <v>0.4030286073684692</v>
+        <v>0.3609644174575806</v>
       </c>
     </row>
     <row r="226" spans="1:22">
@@ -15796,7 +15796,7 @@
         <v>0.4052519798278809</v>
       </c>
       <c r="V226" t="n">
-        <v>0.4919945001602173</v>
+        <v>0.591393768787384</v>
       </c>
     </row>
     <row r="227" spans="1:22">
@@ -15864,7 +15864,7 @@
         <v>0.4094200134277344</v>
       </c>
       <c r="V227" t="n">
-        <v>0.4858860373497009</v>
+        <v>0.3871904611587524</v>
       </c>
     </row>
     <row r="228" spans="1:22">
@@ -15932,7 +15932,7 @@
         <v>0.4066460132598877</v>
       </c>
       <c r="V228" t="n">
-        <v>0.8507372736930847</v>
+        <v>0.5888757705688477</v>
       </c>
     </row>
     <row r="229" spans="1:22">
@@ -16000,7 +16000,7 @@
         <v>0.4332959651947021</v>
       </c>
       <c r="V229" t="n">
-        <v>1.123620986938477</v>
+        <v>0.4400861263275146</v>
       </c>
     </row>
     <row r="230" spans="1:22">
@@ -16068,7 +16068,7 @@
         <v>0.4015820026397705</v>
       </c>
       <c r="V230" t="n">
-        <v>0.8488897085189819</v>
+        <v>0.473851203918457</v>
       </c>
     </row>
     <row r="231" spans="1:22">
@@ -16136,7 +16136,7 @@
         <v>0.4050970077514648</v>
       </c>
       <c r="V231" t="n">
-        <v>0.4264692962169647</v>
+        <v>0.480705738067627</v>
       </c>
     </row>
     <row r="232" spans="1:22">
@@ -16204,7 +16204,7 @@
         <v>0.4173200130462646</v>
       </c>
       <c r="V232" t="n">
-        <v>0.8679428696632385</v>
+        <v>0.4226258993148804</v>
       </c>
     </row>
     <row r="233" spans="1:22">
@@ -16272,7 +16272,7 @@
         <v>0.4144260883331299</v>
       </c>
       <c r="V233" t="n">
-        <v>0.4041977524757385</v>
+        <v>0.5858365893363953</v>
       </c>
     </row>
     <row r="234" spans="1:22">
@@ -16340,7 +16340,7 @@
         <v>0.4076559543609619</v>
       </c>
       <c r="V234" t="n">
-        <v>0.8970310091972351</v>
+        <v>0.4224810004234314</v>
       </c>
     </row>
     <row r="235" spans="1:22">
@@ -16408,7 +16408,7 @@
         <v>0.4050118923187256</v>
       </c>
       <c r="V235" t="n">
-        <v>0.4088596403598785</v>
+        <v>0.689429759979248</v>
       </c>
     </row>
     <row r="236" spans="1:22">
@@ -16476,7 +16476,7 @@
         <v>0.4071331024169922</v>
       </c>
       <c r="V236" t="n">
-        <v>0.3685526549816132</v>
+        <v>0.4841680526733398</v>
       </c>
     </row>
     <row r="237" spans="1:22">
@@ -16544,7 +16544,7 @@
         <v>0.4058289527893066</v>
       </c>
       <c r="V237" t="n">
-        <v>0.4927627146244049</v>
+        <v>0.5874905586242676</v>
       </c>
     </row>
     <row r="238" spans="1:22">
@@ -16612,7 +16612,7 @@
         <v>0.4014730453491211</v>
       </c>
       <c r="V238" t="n">
-        <v>0.3813319504261017</v>
+        <v>0.3785778284072876</v>
       </c>
     </row>
     <row r="239" spans="1:22">
@@ -16680,7 +16680,7 @@
         <v>0.4043900966644287</v>
       </c>
       <c r="V239" t="n">
-        <v>0.9556409120559692</v>
+        <v>0.7964216470718384</v>
       </c>
     </row>
     <row r="240" spans="1:22">
@@ -16748,7 +16748,7 @@
         <v>0.3961811065673828</v>
       </c>
       <c r="V240" t="n">
-        <v>0.400035560131073</v>
+        <v>0.4550627470016479</v>
       </c>
     </row>
     <row r="241" spans="1:22">
@@ -16816,7 +16816,7 @@
         <v>0.4033911228179932</v>
       </c>
       <c r="V241" t="n">
-        <v>0.8758542537689209</v>
+        <v>0.4553601741790771</v>
       </c>
     </row>
     <row r="242" spans="1:22">
@@ -16884,7 +16884,7 @@
         <v>0.9586129188537598</v>
       </c>
       <c r="V242" t="n">
-        <v>0.9170522093772888</v>
+        <v>0.7098118662834167</v>
       </c>
     </row>
     <row r="243" spans="1:22">
@@ -16952,7 +16952,7 @@
         <v>0.9021270275115967</v>
       </c>
       <c r="V243" t="n">
-        <v>0.4189352095127106</v>
+        <v>0.4854723215103149</v>
       </c>
     </row>
     <row r="244" spans="1:22">
@@ -17020,7 +17020,7 @@
         <v>0.8979690074920654</v>
       </c>
       <c r="V244" t="n">
-        <v>0.4923995435237885</v>
+        <v>0.8821812868118286</v>
       </c>
     </row>
     <row r="245" spans="1:22">
@@ -17088,7 +17088,7 @@
         <v>0.8967618942260742</v>
       </c>
       <c r="V245" t="n">
-        <v>0.861488938331604</v>
+        <v>0.4676487445831299</v>
       </c>
     </row>
     <row r="246" spans="1:22">
@@ -17156,7 +17156,7 @@
         <v>0.9445419311523438</v>
       </c>
       <c r="V246" t="n">
-        <v>0.8747525811195374</v>
+        <v>0.7902021408081055</v>
       </c>
     </row>
     <row r="247" spans="1:22">
@@ -17224,7 +17224,7 @@
         <v>0.8941390514373779</v>
       </c>
       <c r="V247" t="n">
-        <v>0.5932084918022156</v>
+        <v>0.8843103051185608</v>
       </c>
     </row>
     <row r="248" spans="1:22">
@@ -17292,7 +17292,7 @@
         <v>0.8910861015319824</v>
       </c>
       <c r="V248" t="n">
-        <v>0.4275226294994354</v>
+        <v>0.5379487872123718</v>
       </c>
     </row>
     <row r="249" spans="1:22">
@@ -17360,7 +17360,7 @@
         <v>0.9741928577423096</v>
       </c>
       <c r="V249" t="n">
-        <v>0.4923459887504578</v>
+        <v>0.6980237364768982</v>
       </c>
     </row>
     <row r="250" spans="1:22">
@@ -17428,7 +17428,7 @@
         <v>0.8945090770721436</v>
       </c>
       <c r="V250" t="n">
-        <v>0.5656925439834595</v>
+        <v>0.5378905534744263</v>
       </c>
     </row>
     <row r="251" spans="1:22">
@@ -17496,7 +17496,7 @@
         <v>0.9051511287689209</v>
       </c>
       <c r="V251" t="n">
-        <v>0.3988056182861328</v>
+        <v>0.3611143827438354</v>
       </c>
     </row>
     <row r="252" spans="1:22">
@@ -17564,7 +17564,7 @@
         <v>0.8906478881835938</v>
       </c>
       <c r="V252" t="n">
-        <v>0.8644875288009644</v>
+        <v>0.6074541807174683</v>
       </c>
     </row>
     <row r="253" spans="1:22">
@@ -17632,7 +17632,7 @@
         <v>0.905116081237793</v>
       </c>
       <c r="V253" t="n">
-        <v>0.4175818860530853</v>
+        <v>0.6180075407028198</v>
       </c>
     </row>
     <row r="254" spans="1:22">
@@ -17700,7 +17700,7 @@
         <v>0.8896300792694092</v>
       </c>
       <c r="V254" t="n">
-        <v>0.4618266522884369</v>
+        <v>0.6980321407318115</v>
       </c>
     </row>
     <row r="255" spans="1:22">
@@ -17768,7 +17768,7 @@
         <v>0.8911221027374268</v>
       </c>
       <c r="V255" t="n">
-        <v>0.9248802661895752</v>
+        <v>0.6077430248260498</v>
       </c>
     </row>
     <row r="256" spans="1:22">
@@ -17836,7 +17836,7 @@
         <v>0.8896300792694092</v>
       </c>
       <c r="V256" t="n">
-        <v>0.8518894910812378</v>
+        <v>0.6980226039886475</v>
       </c>
     </row>
     <row r="257" spans="1:22">
@@ -17904,7 +17904,7 @@
         <v>0.9598829746246338</v>
       </c>
       <c r="V257" t="n">
-        <v>0.4089083671569824</v>
+        <v>0.8804707527160645</v>
       </c>
     </row>
     <row r="258" spans="1:22">
@@ -17972,7 +17972,7 @@
         <v>0.8842358589172363</v>
       </c>
       <c r="V258" t="n">
-        <v>0.4397052824497223</v>
+        <v>0.5172411203384399</v>
       </c>
     </row>
     <row r="259" spans="1:22">
@@ -18040,7 +18040,7 @@
         <v>0.8970301151275635</v>
       </c>
       <c r="V259" t="n">
-        <v>0.4951037764549255</v>
+        <v>0.6566144227981567</v>
       </c>
     </row>
     <row r="260" spans="1:22">
@@ -18108,7 +18108,7 @@
         <v>0.8835229873657227</v>
       </c>
       <c r="V260" t="n">
-        <v>1.122356057167053</v>
+        <v>0.4203795194625854</v>
       </c>
     </row>
     <row r="261" spans="1:22">
@@ -18176,7 +18176,7 @@
         <v>0.9493281841278076</v>
       </c>
       <c r="V261" t="n">
-        <v>0.3917772471904755</v>
+        <v>0.5379610061645508</v>
       </c>
     </row>
     <row r="262" spans="1:22">
@@ -18244,7 +18244,7 @@
         <v>0.5532999038696289</v>
       </c>
       <c r="V262" t="n">
-        <v>0.9122740030288696</v>
+        <v>0.3609153628349304</v>
       </c>
     </row>
     <row r="263" spans="1:22">
@@ -18312,7 +18312,7 @@
         <v>0.5493950843811035</v>
       </c>
       <c r="V263" t="n">
-        <v>0.4921351075172424</v>
+        <v>0.366996169090271</v>
       </c>
     </row>
     <row r="264" spans="1:22">
@@ -18380,7 +18380,7 @@
         <v>0.5352129936218262</v>
       </c>
       <c r="V264" t="n">
-        <v>0.8667412996292114</v>
+        <v>0.4795900583267212</v>
       </c>
     </row>
     <row r="265" spans="1:22">
@@ -18448,7 +18448,7 @@
         <v>0.5383920669555664</v>
       </c>
       <c r="V265" t="n">
-        <v>0.4928520619869232</v>
+        <v>0.5379613637924194</v>
       </c>
     </row>
     <row r="266" spans="1:22">
@@ -18516,7 +18516,7 @@
         <v>0.5986061096191406</v>
       </c>
       <c r="V266" t="n">
-        <v>0.5937578678131104</v>
+        <v>0.4833751916885376</v>
       </c>
     </row>
     <row r="267" spans="1:22">
@@ -18584,7 +18584,7 @@
         <v>0.5483062267303467</v>
       </c>
       <c r="V267" t="n">
-        <v>0.4551942944526672</v>
+        <v>0.6980326771736145</v>
       </c>
     </row>
     <row r="268" spans="1:22">
@@ -18652,7 +18652,7 @@
         <v>0.5410749912261963</v>
       </c>
       <c r="V268" t="n">
-        <v>0.4981359839439392</v>
+        <v>0.4554443955421448</v>
       </c>
     </row>
     <row r="269" spans="1:22">
@@ -18720,7 +18720,7 @@
         <v>0.5398709774017334</v>
       </c>
       <c r="V269" t="n">
-        <v>0.4919360280036926</v>
+        <v>0.6896145939826965</v>
       </c>
     </row>
     <row r="270" spans="1:22">
@@ -18788,7 +18788,7 @@
         <v>0.5443179607391357</v>
       </c>
       <c r="V270" t="n">
-        <v>0.5798199772834778</v>
+        <v>0.3867775201797485</v>
       </c>
     </row>
     <row r="271" spans="1:22">
@@ -18856,7 +18856,7 @@
         <v>0.5771389007568359</v>
       </c>
       <c r="V271" t="n">
-        <v>0.8845717906951904</v>
+        <v>0.4223513603210449</v>
       </c>
     </row>
     <row r="272" spans="1:22">
@@ -18924,7 +18924,7 @@
         <v>0.6685018539428711</v>
       </c>
       <c r="V272" t="n">
-        <v>0.4939094185829163</v>
+        <v>0.4399700164794922</v>
       </c>
     </row>
     <row r="273" spans="1:22">
@@ -18992,7 +18992,7 @@
         <v>0.5557429790496826</v>
       </c>
       <c r="V273" t="n">
-        <v>0.4819467663764954</v>
+        <v>0.7033109068870544</v>
       </c>
     </row>
     <row r="274" spans="1:22">
@@ -19060,7 +19060,7 @@
         <v>0.5827388763427734</v>
       </c>
       <c r="V274" t="n">
-        <v>0.5025355815887451</v>
+        <v>0.6077224016189575</v>
       </c>
     </row>
     <row r="275" spans="1:22">
@@ -19128,7 +19128,7 @@
         <v>0.5357298851013184</v>
       </c>
       <c r="V275" t="n">
-        <v>0.8566262125968933</v>
+        <v>0.5380850434303284</v>
       </c>
     </row>
     <row r="276" spans="1:22">
@@ -19196,7 +19196,7 @@
         <v>0.5934269428253174</v>
       </c>
       <c r="V276" t="n">
-        <v>0.5125983357429504</v>
+        <v>0.5904473066329956</v>
       </c>
     </row>
     <row r="277" spans="1:22">
@@ -19264,7 +19264,7 @@
         <v>0.5378849506378174</v>
       </c>
       <c r="V277" t="n">
-        <v>0.4973795115947723</v>
+        <v>0.7839377522468567</v>
       </c>
     </row>
     <row r="278" spans="1:22">
@@ -19332,7 +19332,7 @@
         <v>0.5386619567871094</v>
       </c>
       <c r="V278" t="n">
-        <v>0.492302268743515</v>
+        <v>0.3867952823638916</v>
       </c>
     </row>
     <row r="279" spans="1:22">
@@ -19400,7 +19400,7 @@
         <v>0.563715934753418</v>
       </c>
       <c r="V279" t="n">
-        <v>0.4090671539306641</v>
+        <v>0.6077727079391479</v>
       </c>
     </row>
     <row r="280" spans="1:22">
@@ -19468,7 +19468,7 @@
         <v>0.5350220203399658</v>
       </c>
       <c r="V280" t="n">
-        <v>0.8871710896492004</v>
+        <v>0.5161032676696777</v>
       </c>
     </row>
     <row r="281" spans="1:22">
@@ -19536,7 +19536,7 @@
         <v>0.5406160354614258</v>
       </c>
       <c r="V281" t="n">
-        <v>0.3717159032821655</v>
+        <v>0.5378709435462952</v>
       </c>
     </row>
     <row r="282" spans="1:22">
@@ -19604,7 +19604,7 @@
         <v>0.4551918506622314</v>
       </c>
       <c r="V282" t="n">
-        <v>0.3974834084510803</v>
+        <v>0.6976108551025391</v>
       </c>
     </row>
     <row r="283" spans="1:22">
@@ -19672,7 +19672,7 @@
         <v>0.5286839008331299</v>
       </c>
       <c r="V283" t="n">
-        <v>0.451092004776001</v>
+        <v>0.3866152763366699</v>
       </c>
     </row>
     <row r="284" spans="1:22">
@@ -19740,7 +19740,7 @@
         <v>0.4146311283111572</v>
       </c>
       <c r="V284" t="n">
-        <v>0.4959170520305634</v>
+        <v>0.3665919899940491</v>
       </c>
     </row>
     <row r="285" spans="1:22">
@@ -19808,7 +19808,7 @@
         <v>0.4117069244384766</v>
       </c>
       <c r="V285" t="n">
-        <v>0.8744379878044128</v>
+        <v>0.5379694104194641</v>
       </c>
     </row>
     <row r="286" spans="1:22">
@@ -19876,7 +19876,7 @@
         <v>0.418874979019165</v>
       </c>
       <c r="V286" t="n">
-        <v>0.3973482847213745</v>
+        <v>0.5662949681282043</v>
       </c>
     </row>
     <row r="287" spans="1:22">
@@ -19944,7 +19944,7 @@
         <v>0.4625599384307861</v>
       </c>
       <c r="V287" t="n">
-        <v>0.8857030868530273</v>
+        <v>0.4801205992698669</v>
       </c>
     </row>
     <row r="288" spans="1:22">
@@ -20012,7 +20012,7 @@
         <v>0.4124529361724854</v>
       </c>
       <c r="V288" t="n">
-        <v>0.4980307519435883</v>
+        <v>0.3648877739906311</v>
       </c>
     </row>
     <row r="289" spans="1:22">
@@ -20080,7 +20080,7 @@
         <v>0.4440610408782959</v>
       </c>
       <c r="V289" t="n">
-        <v>0.3917365670204163</v>
+        <v>0.4054241180419922</v>
       </c>
     </row>
     <row r="290" spans="1:22">
@@ -20148,7 +20148,7 @@
         <v>0.4064319133758545</v>
       </c>
       <c r="V290" t="n">
-        <v>0.5937702059745789</v>
+        <v>0.5379003286361694</v>
       </c>
     </row>
     <row r="291" spans="1:22">
@@ -20216,7 +20216,7 @@
         <v>0.4111340045928955</v>
       </c>
       <c r="V291" t="n">
-        <v>0.4963156580924988</v>
+        <v>0.4914345741271973</v>
       </c>
     </row>
     <row r="292" spans="1:22">
@@ -20284,7 +20284,7 @@
         <v>0.4108929634094238</v>
       </c>
       <c r="V292" t="n">
-        <v>0.4176713824272156</v>
+        <v>0.6896112561225891</v>
       </c>
     </row>
     <row r="293" spans="1:22">
@@ -20352,7 +20352,7 @@
         <v>0.4676790237426758</v>
       </c>
       <c r="V293" t="n">
-        <v>0.5120292901992798</v>
+        <v>0.5379763245582581</v>
       </c>
     </row>
     <row r="294" spans="1:22">
@@ -20420,7 +20420,7 @@
         <v>0.4270689487457275</v>
       </c>
       <c r="V294" t="n">
-        <v>0.4090177714824677</v>
+        <v>0.4850061535835266</v>
       </c>
     </row>
     <row r="295" spans="1:22">
@@ -20488,7 +20488,7 @@
         <v>0.4076859951019287</v>
       </c>
       <c r="V295" t="n">
-        <v>0.483717292547226</v>
+        <v>0.6075444221496582</v>
       </c>
     </row>
     <row r="296" spans="1:22">
@@ -20556,7 +20556,7 @@
         <v>0.4094829559326172</v>
       </c>
       <c r="V296" t="n">
-        <v>1.122924566268921</v>
+        <v>0.4226645827293396</v>
       </c>
     </row>
     <row r="297" spans="1:22">
@@ -20624,7 +20624,7 @@
         <v>0.426353931427002</v>
       </c>
       <c r="V297" t="n">
-        <v>0.8641945123672485</v>
+        <v>0.4029312133789062</v>
       </c>
     </row>
     <row r="298" spans="1:22">
@@ -20692,7 +20692,7 @@
         <v>0.4103739261627197</v>
       </c>
       <c r="V298" t="n">
-        <v>0.4834424257278442</v>
+        <v>0.5562270879745483</v>
       </c>
     </row>
     <row r="299" spans="1:22">
@@ -20760,7 +20760,7 @@
         <v>0.4647040367126465</v>
       </c>
       <c r="V299" t="n">
-        <v>0.8840188384056091</v>
+        <v>0.6566483378410339</v>
       </c>
     </row>
     <row r="300" spans="1:22">
@@ -20828,7 +20828,7 @@
         <v>0.4139828681945801</v>
       </c>
       <c r="V300" t="n">
-        <v>0.4549454748630524</v>
+        <v>0.4719034433364868</v>
       </c>
     </row>
     <row r="301" spans="1:22">
@@ -20896,7 +20896,7 @@
         <v>0.4141430854797363</v>
       </c>
       <c r="V301" t="n">
-        <v>0.4020214080810547</v>
+        <v>0.5890090465545654</v>
       </c>
     </row>
     <row r="302" spans="1:22">

--- a/data/scheduling_DNN/predict/result1.xlsx
+++ b/data/scheduling_DNN/predict/result1.xlsx
@@ -564,7 +564,7 @@
         <v>1.469604969024658</v>
       </c>
       <c r="V2" t="n">
-        <v>0.6046422719955444</v>
+        <v>0.6507607698440552</v>
       </c>
     </row>
     <row r="3" spans="1:22">
@@ -632,7 +632,7 @@
         <v>0.9576139450073242</v>
       </c>
       <c r="V3" t="n">
-        <v>0.4411333203315735</v>
+        <v>0.5908746719360352</v>
       </c>
     </row>
     <row r="4" spans="1:22">
@@ -700,7 +700,7 @@
         <v>0.9052128791809082</v>
       </c>
       <c r="V4" t="n">
-        <v>0.8856419324874878</v>
+        <v>0.6521576642990112</v>
       </c>
     </row>
     <row r="5" spans="1:22">
@@ -768,7 +768,7 @@
         <v>0.9127449989318848</v>
       </c>
       <c r="V5" t="n">
-        <v>0.7030863761901855</v>
+        <v>0.4907240867614746</v>
       </c>
     </row>
     <row r="6" spans="1:22">
@@ -836,7 +836,7 @@
         <v>0.8934659957885742</v>
       </c>
       <c r="V6" t="n">
-        <v>0.4034273028373718</v>
+        <v>0.5873388648033142</v>
       </c>
     </row>
     <row r="7" spans="1:22">
@@ -904,7 +904,7 @@
         <v>0.8803379535675049</v>
       </c>
       <c r="V7" t="n">
-        <v>0.4784874320030212</v>
+        <v>0.3514944016933441</v>
       </c>
     </row>
     <row r="8" spans="1:22">
@@ -972,7 +972,7 @@
         <v>0.9409048557281494</v>
       </c>
       <c r="V8" t="n">
-        <v>0.5887113809585571</v>
+        <v>0.5050956606864929</v>
       </c>
     </row>
     <row r="9" spans="1:22">
@@ -1040,7 +1040,7 @@
         <v>0.8936929702758789</v>
       </c>
       <c r="V9" t="n">
-        <v>0.7033395767211914</v>
+        <v>0.372467577457428</v>
       </c>
     </row>
     <row r="10" spans="1:22">
@@ -1108,7 +1108,7 @@
         <v>0.881087064743042</v>
       </c>
       <c r="V10" t="n">
-        <v>0.6047618389129639</v>
+        <v>0.8004262447357178</v>
       </c>
     </row>
     <row r="11" spans="1:22">
@@ -1176,7 +1176,7 @@
         <v>0.8740129470825195</v>
       </c>
       <c r="V11" t="n">
-        <v>0.8821443915367126</v>
+        <v>0.6992233991622925</v>
       </c>
     </row>
     <row r="12" spans="1:22">
@@ -1244,7 +1244,7 @@
         <v>0.9498248100280762</v>
       </c>
       <c r="V12" t="n">
-        <v>0.4844722747802734</v>
+        <v>0.3717378973960876</v>
       </c>
     </row>
     <row r="13" spans="1:22">
@@ -1312,7 +1312,7 @@
         <v>0.9320590496063232</v>
       </c>
       <c r="V13" t="n">
-        <v>0.7102096080780029</v>
+        <v>0.5762905478477478</v>
       </c>
     </row>
     <row r="14" spans="1:22">
@@ -1380,7 +1380,7 @@
         <v>0.9392838478088379</v>
       </c>
       <c r="V14" t="n">
-        <v>0.475893497467041</v>
+        <v>0.5263315439224243</v>
       </c>
     </row>
     <row r="15" spans="1:22">
@@ -1448,7 +1448,7 @@
         <v>0.9032180309295654</v>
       </c>
       <c r="V15" t="n">
-        <v>0.4223143458366394</v>
+        <v>0.5249706506729126</v>
       </c>
     </row>
     <row r="16" spans="1:22">
@@ -1516,7 +1516,7 @@
         <v>0.9470698833465576</v>
       </c>
       <c r="V16" t="n">
-        <v>0.4223841428756714</v>
+        <v>0.8022168874740601</v>
       </c>
     </row>
     <row r="17" spans="1:22">
@@ -1584,7 +1584,7 @@
         <v>0.8911538124084473</v>
       </c>
       <c r="V17" t="n">
-        <v>0.4806921482086182</v>
+        <v>0.5406032800674438</v>
       </c>
     </row>
     <row r="18" spans="1:22">
@@ -1652,7 +1652,7 @@
         <v>0.8763668537139893</v>
       </c>
       <c r="V18" t="n">
-        <v>0.6490634083747864</v>
+        <v>0.6529941558837891</v>
       </c>
     </row>
     <row r="19" spans="1:22">
@@ -1720,7 +1720,7 @@
         <v>0.8848881721496582</v>
       </c>
       <c r="V19" t="n">
-        <v>0.4223188161849976</v>
+        <v>0.4176340699195862</v>
       </c>
     </row>
     <row r="20" spans="1:22">
@@ -1788,7 +1788,7 @@
         <v>0.9042701721191406</v>
       </c>
       <c r="V20" t="n">
-        <v>0.8805928230285645</v>
+        <v>0.3789054155349731</v>
       </c>
     </row>
     <row r="21" spans="1:22">
@@ -1856,7 +1856,7 @@
         <v>0.9186079502105713</v>
       </c>
       <c r="V21" t="n">
-        <v>0.6106979846954346</v>
+        <v>0.4175398349761963</v>
       </c>
     </row>
     <row r="22" spans="1:22">
@@ -1924,7 +1924,7 @@
         <v>0.5461130142211914</v>
       </c>
       <c r="V22" t="n">
-        <v>0.6516602039337158</v>
+        <v>0.4692052006721497</v>
       </c>
     </row>
     <row r="23" spans="1:22">
@@ -1992,7 +1992,7 @@
         <v>0.5479838848114014</v>
       </c>
       <c r="V23" t="n">
-        <v>0.8844561576843262</v>
+        <v>0.5054473876953125</v>
       </c>
     </row>
     <row r="24" spans="1:22">
@@ -2060,7 +2060,7 @@
         <v>0.5971319675445557</v>
       </c>
       <c r="V24" t="n">
-        <v>0.8845577836036682</v>
+        <v>0.4634823501110077</v>
       </c>
     </row>
     <row r="25" spans="1:22">
@@ -2128,7 +2128,7 @@
         <v>0.5396850109100342</v>
       </c>
       <c r="V25" t="n">
-        <v>0.480116069316864</v>
+        <v>0.5762413144111633</v>
       </c>
     </row>
     <row r="26" spans="1:22">
@@ -2196,7 +2196,7 @@
         <v>0.5460989475250244</v>
       </c>
       <c r="V26" t="n">
-        <v>0.4721607565879822</v>
+        <v>0.5058352947235107</v>
       </c>
     </row>
     <row r="27" spans="1:22">
@@ -2264,7 +2264,7 @@
         <v>0.5273451805114746</v>
       </c>
       <c r="V27" t="n">
-        <v>0.8878307342529297</v>
+        <v>0.4615108966827393</v>
       </c>
     </row>
     <row r="28" spans="1:22">
@@ -2332,7 +2332,7 @@
         <v>0.5345249176025391</v>
       </c>
       <c r="V28" t="n">
-        <v>0.4408747553825378</v>
+        <v>0.6543079614639282</v>
       </c>
     </row>
     <row r="29" spans="1:22">
@@ -2400,7 +2400,7 @@
         <v>0.5431008338928223</v>
       </c>
       <c r="V29" t="n">
-        <v>0.6281869411468506</v>
+        <v>0.9755698442459106</v>
       </c>
     </row>
     <row r="30" spans="1:22">
@@ -2468,7 +2468,7 @@
         <v>0.5520429611206055</v>
       </c>
       <c r="V30" t="n">
-        <v>0.5606808662414551</v>
+        <v>0.4175510704517365</v>
       </c>
     </row>
     <row r="31" spans="1:22">
@@ -2536,7 +2536,7 @@
         <v>0.5254662036895752</v>
       </c>
       <c r="V31" t="n">
-        <v>0.6980346441268921</v>
+        <v>0.6992341279983521</v>
       </c>
     </row>
     <row r="32" spans="1:22">
@@ -2604,7 +2604,7 @@
         <v>0.5756039619445801</v>
       </c>
       <c r="V32" t="n">
-        <v>0.4795461297035217</v>
+        <v>0.6928392648696899</v>
       </c>
     </row>
     <row r="33" spans="1:22">
@@ -2672,7 +2672,7 @@
         <v>0.5258669853210449</v>
       </c>
       <c r="V33" t="n">
-        <v>0.5378856658935547</v>
+        <v>0.3720111846923828</v>
       </c>
     </row>
     <row r="34" spans="1:22">
@@ -2740,7 +2740,7 @@
         <v>0.5430159568786621</v>
       </c>
       <c r="V34" t="n">
-        <v>0.5618018507957458</v>
+        <v>0.3507673740386963</v>
       </c>
     </row>
     <row r="35" spans="1:22">
@@ -2808,7 +2808,7 @@
         <v>0.5377190113067627</v>
       </c>
       <c r="V35" t="n">
-        <v>0.4384316802024841</v>
+        <v>0.3471212387084961</v>
       </c>
     </row>
     <row r="36" spans="1:22">
@@ -2876,7 +2876,7 @@
         <v>0.5283079147338867</v>
       </c>
       <c r="V36" t="n">
-        <v>0.440751314163208</v>
+        <v>0.5038111805915833</v>
       </c>
     </row>
     <row r="37" spans="1:22">
@@ -2944,7 +2944,7 @@
         <v>0.5266439914703369</v>
       </c>
       <c r="V37" t="n">
-        <v>0.3799396157264709</v>
+        <v>0.5036088228225708</v>
       </c>
     </row>
     <row r="38" spans="1:22">
@@ -3012,7 +3012,7 @@
         <v>0.5255799293518066</v>
       </c>
       <c r="V38" t="n">
-        <v>0.6095789670944214</v>
+        <v>0.975210964679718</v>
       </c>
     </row>
     <row r="39" spans="1:22">
@@ -3080,7 +3080,7 @@
         <v>0.5257630348205566</v>
       </c>
       <c r="V39" t="n">
-        <v>0.4036211967468262</v>
+        <v>0.5049243569374084</v>
       </c>
     </row>
     <row r="40" spans="1:22">
@@ -3148,7 +3148,7 @@
         <v>0.5748438835144043</v>
       </c>
       <c r="V40" t="n">
-        <v>0.6080566644668579</v>
+        <v>0.4638742208480835</v>
       </c>
     </row>
     <row r="41" spans="1:22">
@@ -3216,7 +3216,7 @@
         <v>0.5403299331665039</v>
       </c>
       <c r="V41" t="n">
-        <v>0.6865060329437256</v>
+        <v>0.3470365405082703</v>
       </c>
     </row>
     <row r="42" spans="1:22">
@@ -3284,7 +3284,7 @@
         <v>0.4217770099639893</v>
       </c>
       <c r="V42" t="n">
-        <v>0.6181319952011108</v>
+        <v>0.5048985481262207</v>
       </c>
     </row>
     <row r="43" spans="1:22">
@@ -3352,7 +3352,7 @@
         <v>0.4192249774932861</v>
       </c>
       <c r="V43" t="n">
-        <v>0.7100529074668884</v>
+        <v>0.3507419228553772</v>
       </c>
     </row>
     <row r="44" spans="1:22">
@@ -3420,7 +3420,7 @@
         <v>0.3973371982574463</v>
       </c>
       <c r="V44" t="n">
-        <v>0.4033211469650269</v>
+        <v>0.5247749090194702</v>
       </c>
     </row>
     <row r="45" spans="1:22">
@@ -3488,7 +3488,7 @@
         <v>0.396845817565918</v>
       </c>
       <c r="V45" t="n">
-        <v>0.7939709424972534</v>
+        <v>0.5045692920684814</v>
       </c>
     </row>
     <row r="46" spans="1:22">
@@ -3556,7 +3556,7 @@
         <v>0.3973300457000732</v>
       </c>
       <c r="V46" t="n">
-        <v>0.6539028882980347</v>
+        <v>0.5050196051597595</v>
       </c>
     </row>
     <row r="47" spans="1:22">
@@ -3624,7 +3624,7 @@
         <v>0.40260910987854</v>
       </c>
       <c r="V47" t="n">
-        <v>0.4844552874565125</v>
+        <v>0.4634853303432465</v>
       </c>
     </row>
     <row r="48" spans="1:22">
@@ -3692,7 +3692,7 @@
         <v>0.4107708930969238</v>
       </c>
       <c r="V48" t="n">
-        <v>0.6076244711875916</v>
+        <v>0.8027225732803345</v>
       </c>
     </row>
     <row r="49" spans="1:22">
@@ -3760,7 +3760,7 @@
         <v>0.3985190391540527</v>
       </c>
       <c r="V49" t="n">
-        <v>0.3610904812812805</v>
+        <v>0.3516814708709717</v>
       </c>
     </row>
     <row r="50" spans="1:22">
@@ -3828,7 +3828,7 @@
         <v>0.3982610702514648</v>
       </c>
       <c r="V50" t="n">
-        <v>0.4214755892753601</v>
+        <v>0.7081183791160583</v>
       </c>
     </row>
     <row r="51" spans="1:22">
@@ -3896,7 +3896,7 @@
         <v>0.3960020542144775</v>
       </c>
       <c r="V51" t="n">
-        <v>0.455345094203949</v>
+        <v>0.4638583362102509</v>
       </c>
     </row>
     <row r="52" spans="1:22">
@@ -3964,7 +3964,7 @@
         <v>0.3978888988494873</v>
       </c>
       <c r="V52" t="n">
-        <v>0.7900906205177307</v>
+        <v>0.4907757639884949</v>
       </c>
     </row>
     <row r="53" spans="1:22">
@@ -4032,7 +4032,7 @@
         <v>0.3950610160827637</v>
       </c>
       <c r="V53" t="n">
-        <v>0.3610464334487915</v>
+        <v>0.3470315337181091</v>
       </c>
     </row>
     <row r="54" spans="1:22">
@@ -4100,7 +4100,7 @@
         <v>0.3979020118713379</v>
       </c>
       <c r="V54" t="n">
-        <v>0.607180655002594</v>
+        <v>0.802417516708374</v>
       </c>
     </row>
     <row r="55" spans="1:22">
@@ -4168,7 +4168,7 @@
         <v>0.3981389999389648</v>
       </c>
       <c r="V55" t="n">
-        <v>0.3877466320991516</v>
+        <v>0.417653352022171</v>
       </c>
     </row>
     <row r="56" spans="1:22">
@@ -4236,7 +4236,7 @@
         <v>0.3943989276885986</v>
       </c>
       <c r="V56" t="n">
-        <v>0.6077646017074585</v>
+        <v>0.4615180790424347</v>
       </c>
     </row>
     <row r="57" spans="1:22">
@@ -4304,7 +4304,7 @@
         <v>0.3950021266937256</v>
       </c>
       <c r="V57" t="n">
-        <v>0.4810751676559448</v>
+        <v>0.8031194806098938</v>
       </c>
     </row>
     <row r="58" spans="1:22">
@@ -4372,7 +4372,7 @@
         <v>0.4145150184631348</v>
       </c>
       <c r="V58" t="n">
-        <v>0.3647720217704773</v>
+        <v>0.3794727325439453</v>
       </c>
     </row>
     <row r="59" spans="1:22">
@@ -4440,7 +4440,7 @@
         <v>0.3956568241119385</v>
       </c>
       <c r="V59" t="n">
-        <v>0.3873438239097595</v>
+        <v>0.4175129532814026</v>
       </c>
     </row>
     <row r="60" spans="1:22">
@@ -4508,7 +4508,7 @@
         <v>0.4056699275970459</v>
       </c>
       <c r="V60" t="n">
-        <v>0.6981954574584961</v>
+        <v>0.4898227453231812</v>
       </c>
     </row>
     <row r="61" spans="1:22">
@@ -4576,7 +4576,7 @@
         <v>0.4059398174285889</v>
       </c>
       <c r="V61" t="n">
-        <v>0.4425290822982788</v>
+        <v>0.5051002502441406</v>
       </c>
     </row>
     <row r="62" spans="1:22">
@@ -4644,7 +4644,7 @@
         <v>1.02625584602356</v>
       </c>
       <c r="V62" t="n">
-        <v>0.5853784084320068</v>
+        <v>0.4634914994239807</v>
       </c>
     </row>
     <row r="63" spans="1:22">
@@ -4712,7 +4712,7 @@
         <v>0.9517920017242432</v>
       </c>
       <c r="V63" t="n">
-        <v>0.4227662682533264</v>
+        <v>0.653493344783783</v>
       </c>
     </row>
     <row r="64" spans="1:22">
@@ -4780,7 +4780,7 @@
         <v>0.9051640033721924</v>
       </c>
       <c r="V64" t="n">
-        <v>0.6094298958778381</v>
+        <v>0.371780127286911</v>
       </c>
     </row>
     <row r="65" spans="1:22">
@@ -4848,7 +4848,7 @@
         <v>1.003021001815796</v>
       </c>
       <c r="V65" t="n">
-        <v>0.4005610942840576</v>
+        <v>0.505433976650238</v>
       </c>
     </row>
     <row r="66" spans="1:22">
@@ -4916,7 +4916,7 @@
         <v>0.9027309417724609</v>
       </c>
       <c r="V66" t="n">
-        <v>0.8876227140426636</v>
+        <v>0.4176599979400635</v>
       </c>
     </row>
     <row r="67" spans="1:22">
@@ -4984,7 +4984,7 @@
         <v>0.8939568996429443</v>
       </c>
       <c r="V67" t="n">
-        <v>0.4768378734588623</v>
+        <v>0.490907609462738</v>
       </c>
     </row>
     <row r="68" spans="1:22">
@@ -5052,7 +5052,7 @@
         <v>0.8873119354248047</v>
       </c>
       <c r="V68" t="n">
-        <v>0.6086897850036621</v>
+        <v>0.8015877604484558</v>
       </c>
     </row>
     <row r="69" spans="1:22">
@@ -5120,7 +5120,7 @@
         <v>0.8788712024688721</v>
       </c>
       <c r="V69" t="n">
-        <v>0.4554891586303711</v>
+        <v>0.6533396244049072</v>
       </c>
     </row>
     <row r="70" spans="1:22">
@@ -5188,7 +5188,7 @@
         <v>0.8773040771484375</v>
       </c>
       <c r="V70" t="n">
-        <v>0.4718003869056702</v>
+        <v>0.5030666589736938</v>
       </c>
     </row>
     <row r="71" spans="1:22">
@@ -5256,7 +5256,7 @@
         <v>0.8974218368530273</v>
       </c>
       <c r="V71" t="n">
-        <v>0.6051912903785706</v>
+        <v>0.8386415839195251</v>
       </c>
     </row>
     <row r="72" spans="1:22">
@@ -5324,7 +5324,7 @@
         <v>0.8843009471893311</v>
       </c>
       <c r="V72" t="n">
-        <v>0.8805574774742126</v>
+        <v>0.652911365032196</v>
       </c>
     </row>
     <row r="73" spans="1:22">
@@ -5392,7 +5392,7 @@
         <v>0.8786149024963379</v>
       </c>
       <c r="V73" t="n">
-        <v>0.6563281416893005</v>
+        <v>0.5251024961471558</v>
       </c>
     </row>
     <row r="74" spans="1:22">
@@ -5460,7 +5460,7 @@
         <v>0.9318070411682129</v>
       </c>
       <c r="V74" t="n">
-        <v>0.4222974181175232</v>
+        <v>0.417663037776947</v>
       </c>
     </row>
     <row r="75" spans="1:22">
@@ -5528,7 +5528,7 @@
         <v>0.8818371295928955</v>
       </c>
       <c r="V75" t="n">
-        <v>0.587807834148407</v>
+        <v>0.405481219291687</v>
       </c>
     </row>
     <row r="76" spans="1:22">
@@ -5596,7 +5596,7 @@
         <v>0.8789389133453369</v>
       </c>
       <c r="V76" t="n">
-        <v>0.477519690990448</v>
+        <v>0.8340836763381958</v>
       </c>
     </row>
     <row r="77" spans="1:22">
@@ -5664,7 +5664,7 @@
         <v>0.9003469944000244</v>
       </c>
       <c r="V77" t="n">
-        <v>0.4227635264396667</v>
+        <v>0.3895606100559235</v>
       </c>
     </row>
     <row r="78" spans="1:22">
@@ -5732,7 +5732,7 @@
         <v>0.9369490146636963</v>
       </c>
       <c r="V78" t="n">
-        <v>0.4843006730079651</v>
+        <v>0.9757341742515564</v>
       </c>
     </row>
     <row r="79" spans="1:22">
@@ -5800,7 +5800,7 @@
         <v>0.8839180469512939</v>
       </c>
       <c r="V79" t="n">
-        <v>0.7839659452438354</v>
+        <v>0.5051093101501465</v>
       </c>
     </row>
     <row r="80" spans="1:22">
@@ -5868,7 +5868,7 @@
         <v>0.8740348815917969</v>
       </c>
       <c r="V80" t="n">
-        <v>0.5881173610687256</v>
+        <v>0.6535240411758423</v>
       </c>
     </row>
     <row r="81" spans="1:22">
@@ -5936,7 +5936,7 @@
         <v>0.878889799118042</v>
       </c>
       <c r="V81" t="n">
-        <v>0.4851488471031189</v>
+        <v>0.5247950553894043</v>
       </c>
     </row>
     <row r="82" spans="1:22">
@@ -6004,7 +6004,7 @@
         <v>0.6107220649719238</v>
       </c>
       <c r="V82" t="n">
-        <v>0.7040767669677734</v>
+        <v>0.6927068829536438</v>
       </c>
     </row>
     <row r="83" spans="1:22">
@@ -6072,7 +6072,7 @@
         <v>0.5351009368896484</v>
       </c>
       <c r="V83" t="n">
-        <v>0.8822028636932373</v>
+        <v>0.5256670713424683</v>
       </c>
     </row>
     <row r="84" spans="1:22">
@@ -6140,7 +6140,7 @@
         <v>0.5319771766662598</v>
       </c>
       <c r="V84" t="n">
-        <v>0.8854296207427979</v>
+        <v>0.6928427815437317</v>
       </c>
     </row>
     <row r="85" spans="1:22">
@@ -6208,7 +6208,7 @@
         <v>0.5300149917602539</v>
       </c>
       <c r="V85" t="n">
-        <v>0.6954771280288696</v>
+        <v>0.4176654517650604</v>
       </c>
     </row>
     <row r="86" spans="1:22">
@@ -6276,7 +6276,7 @@
         <v>0.5222859382629395</v>
       </c>
       <c r="V86" t="n">
-        <v>0.6464481353759766</v>
+        <v>0.9760575294494629</v>
       </c>
     </row>
     <row r="87" spans="1:22">
@@ -6344,7 +6344,7 @@
         <v>0.5271379947662354</v>
       </c>
       <c r="V87" t="n">
-        <v>0.5552331805229187</v>
+        <v>0.6547797918319702</v>
       </c>
     </row>
     <row r="88" spans="1:22">
@@ -6412,7 +6412,7 @@
         <v>0.5315499305725098</v>
       </c>
       <c r="V88" t="n">
-        <v>0.4427711367607117</v>
+        <v>0.6539149880409241</v>
       </c>
     </row>
     <row r="89" spans="1:22">
@@ -6480,7 +6480,7 @@
         <v>0.5334780216217041</v>
       </c>
       <c r="V89" t="n">
-        <v>0.4223676919937134</v>
+        <v>0.3712720274925232</v>
       </c>
     </row>
     <row r="90" spans="1:22">
@@ -6548,7 +6548,7 @@
         <v>0.5340180397033691</v>
       </c>
       <c r="V90" t="n">
-        <v>0.3671503067016602</v>
+        <v>0.5257673263549805</v>
       </c>
     </row>
     <row r="91" spans="1:22">
@@ -6616,7 +6616,7 @@
         <v>0.531419038772583</v>
       </c>
       <c r="V91" t="n">
-        <v>0.7011902928352356</v>
+        <v>0.8039833903312683</v>
       </c>
     </row>
     <row r="92" spans="1:22">
@@ -6684,7 +6684,7 @@
         <v>0.5320870876312256</v>
       </c>
       <c r="V92" t="n">
-        <v>0.4802040457725525</v>
+        <v>0.4638231992721558</v>
       </c>
     </row>
     <row r="93" spans="1:22">
@@ -6752,7 +6752,7 @@
         <v>0.535567045211792</v>
       </c>
       <c r="V93" t="n">
-        <v>0.4030694961547852</v>
+        <v>0.6992434859275818</v>
       </c>
     </row>
     <row r="94" spans="1:22">
@@ -6820,7 +6820,7 @@
         <v>0.5251190662384033</v>
       </c>
       <c r="V94" t="n">
-        <v>0.537911593914032</v>
+        <v>0.801636278629303</v>
       </c>
     </row>
     <row r="95" spans="1:22">
@@ -6888,7 +6888,7 @@
         <v>0.5292398929595947</v>
       </c>
       <c r="V95" t="n">
-        <v>0.6536902785301208</v>
+        <v>0.4907099008560181</v>
       </c>
     </row>
     <row r="96" spans="1:22">
@@ -6956,7 +6956,7 @@
         <v>0.5305531024932861</v>
       </c>
       <c r="V96" t="n">
-        <v>0.5580369234085083</v>
+        <v>0.3721317946910858</v>
       </c>
     </row>
     <row r="97" spans="1:22">
@@ -7024,7 +7024,7 @@
         <v>0.5304639339447021</v>
       </c>
       <c r="V97" t="n">
-        <v>0.4796501398086548</v>
+        <v>0.4176275134086609</v>
       </c>
     </row>
     <row r="98" spans="1:22">
@@ -7092,7 +7092,7 @@
         <v>0.5783541202545166</v>
       </c>
       <c r="V98" t="n">
-        <v>0.590424120426178</v>
+        <v>0.8341045379638672</v>
       </c>
     </row>
     <row r="99" spans="1:22">
@@ -7160,7 +7160,7 @@
         <v>0.5288350582122803</v>
       </c>
       <c r="V99" t="n">
-        <v>0.6485797166824341</v>
+        <v>0.9755959510803223</v>
       </c>
     </row>
     <row r="100" spans="1:22">
@@ -7228,7 +7228,7 @@
         <v>0.5300018787384033</v>
       </c>
       <c r="V100" t="n">
-        <v>0.3609596490859985</v>
+        <v>0.6534236073493958</v>
       </c>
     </row>
     <row r="101" spans="1:22">
@@ -7296,7 +7296,7 @@
         <v>0.5334467887878418</v>
       </c>
       <c r="V101" t="n">
-        <v>0.4207318425178528</v>
+        <v>0.3718892931938171</v>
       </c>
     </row>
     <row r="102" spans="1:22">
@@ -7364,7 +7364,7 @@
         <v>0.4135949611663818</v>
       </c>
       <c r="V102" t="n">
-        <v>0.4229405522346497</v>
+        <v>0.5822299122810364</v>
       </c>
     </row>
     <row r="103" spans="1:22">
@@ -7432,7 +7432,7 @@
         <v>0.4203581809997559</v>
       </c>
       <c r="V103" t="n">
-        <v>0.438488781452179</v>
+        <v>0.6531109213829041</v>
       </c>
     </row>
     <row r="104" spans="1:22">
@@ -7500,7 +7500,7 @@
         <v>0.4076690673828125</v>
       </c>
       <c r="V104" t="n">
-        <v>0.8004910945892334</v>
+        <v>0.708076536655426</v>
       </c>
     </row>
     <row r="105" spans="1:22">
@@ -7568,7 +7568,7 @@
         <v>0.4117300510406494</v>
       </c>
       <c r="V105" t="n">
-        <v>0.7899690866470337</v>
+        <v>0.9752137064933777</v>
       </c>
     </row>
     <row r="106" spans="1:22">
@@ -7636,7 +7636,7 @@
         <v>0.3982830047607422</v>
       </c>
       <c r="V106" t="n">
-        <v>0.4837238192558289</v>
+        <v>0.5245808959007263</v>
       </c>
     </row>
     <row r="107" spans="1:22">
@@ -7704,7 +7704,7 @@
         <v>0.3995699882507324</v>
       </c>
       <c r="V107" t="n">
-        <v>0.36097651720047</v>
+        <v>0.5248074531555176</v>
       </c>
     </row>
     <row r="108" spans="1:22">
@@ -7772,7 +7772,7 @@
         <v>0.3960738182067871</v>
       </c>
       <c r="V108" t="n">
-        <v>0.5570175051689148</v>
+        <v>0.4904197454452515</v>
       </c>
     </row>
     <row r="109" spans="1:22">
@@ -7840,7 +7840,7 @@
         <v>0.4147820472717285</v>
       </c>
       <c r="V109" t="n">
-        <v>0.6282039284706116</v>
+        <v>0.7035837173461914</v>
       </c>
     </row>
     <row r="110" spans="1:22">
@@ -7908,7 +7908,7 @@
         <v>0.3983039855957031</v>
       </c>
       <c r="V110" t="n">
-        <v>0.5912466049194336</v>
+        <v>0.9756271839141846</v>
       </c>
     </row>
     <row r="111" spans="1:22">
@@ -7976,7 +7976,7 @@
         <v>0.4013969898223877</v>
       </c>
       <c r="V111" t="n">
-        <v>0.4211025238037109</v>
+        <v>0.5826250314712524</v>
       </c>
     </row>
     <row r="112" spans="1:22">
@@ -8044,7 +8044,7 @@
         <v>0.4056260585784912</v>
       </c>
       <c r="V112" t="n">
-        <v>0.7898924350738525</v>
+        <v>0.6537992358207703</v>
       </c>
     </row>
     <row r="113" spans="1:22">
@@ -8112,7 +8112,7 @@
         <v>0.3991959095001221</v>
       </c>
       <c r="V113" t="n">
-        <v>0.6980137825012207</v>
+        <v>0.5247882604598999</v>
       </c>
     </row>
     <row r="114" spans="1:22">
@@ -8180,7 +8180,7 @@
         <v>0.401115894317627</v>
       </c>
       <c r="V114" t="n">
-        <v>0.3609535694122314</v>
+        <v>0.3507460951805115</v>
       </c>
     </row>
     <row r="115" spans="1:22">
@@ -8248,7 +8248,7 @@
         <v>0.3997581005096436</v>
       </c>
       <c r="V115" t="n">
-        <v>0.3868059515953064</v>
+        <v>0.5052164793014526</v>
       </c>
     </row>
     <row r="116" spans="1:22">
@@ -8316,7 +8316,7 @@
         <v>0.4026870727539062</v>
       </c>
       <c r="V116" t="n">
-        <v>0.5881587862968445</v>
+        <v>0.7035881876945496</v>
       </c>
     </row>
     <row r="117" spans="1:22">
@@ -8384,7 +8384,7 @@
         <v>0.4104290008544922</v>
       </c>
       <c r="V117" t="n">
-        <v>0.5380626916885376</v>
+        <v>0.5825173258781433</v>
       </c>
     </row>
     <row r="118" spans="1:22">
@@ -8452,7 +8452,7 @@
         <v>0.4057800769805908</v>
       </c>
       <c r="V118" t="n">
-        <v>0.3666130304336548</v>
+        <v>0.3507409393787384</v>
       </c>
     </row>
     <row r="119" spans="1:22">
@@ -8520,7 +8520,7 @@
         <v>0.3966670036315918</v>
       </c>
       <c r="V119" t="n">
-        <v>0.6984093189239502</v>
+        <v>0.3507806360721588</v>
       </c>
     </row>
     <row r="120" spans="1:22">
@@ -8588,7 +8588,7 @@
         <v>0.4050350189208984</v>
       </c>
       <c r="V120" t="n">
-        <v>0.5379091501235962</v>
+        <v>0.8296502828598022</v>
       </c>
     </row>
     <row r="121" spans="1:22">
@@ -8656,7 +8656,7 @@
         <v>0.4038529396057129</v>
       </c>
       <c r="V121" t="n">
-        <v>0.4552754163742065</v>
+        <v>0.6531110405921936</v>
       </c>
     </row>
     <row r="122" spans="1:22">
@@ -8724,7 +8724,7 @@
         <v>0.8896141052246094</v>
       </c>
       <c r="V122" t="n">
-        <v>0.8854069709777832</v>
+        <v>0.4638242721557617</v>
       </c>
     </row>
     <row r="123" spans="1:22">
@@ -8792,7 +8792,7 @@
         <v>0.906566858291626</v>
       </c>
       <c r="V123" t="n">
-        <v>0.3786981105804443</v>
+        <v>0.8004398941993713</v>
       </c>
     </row>
     <row r="124" spans="1:22">
@@ -8860,7 +8860,7 @@
         <v>0.8737847805023193</v>
       </c>
       <c r="V124" t="n">
-        <v>0.5378825664520264</v>
+        <v>0.5906542539596558</v>
       </c>
     </row>
     <row r="125" spans="1:22">
@@ -8928,7 +8928,7 @@
         <v>0.9282269477844238</v>
       </c>
       <c r="V125" t="n">
-        <v>0.5379722714424133</v>
+        <v>0.655465304851532</v>
       </c>
     </row>
     <row r="126" spans="1:22">
@@ -8996,7 +8996,7 @@
         <v>0.8831160068511963</v>
       </c>
       <c r="V126" t="n">
-        <v>0.64891517162323</v>
+        <v>0.5037472248077393</v>
       </c>
     </row>
     <row r="127" spans="1:22">
@@ -9064,7 +9064,7 @@
         <v>0.9013409614562988</v>
       </c>
       <c r="V127" t="n">
-        <v>0.7903261780738831</v>
+        <v>0.6533357501029968</v>
       </c>
     </row>
     <row r="128" spans="1:22">
@@ -9132,7 +9132,7 @@
         <v>0.8755838871002197</v>
       </c>
       <c r="V128" t="n">
-        <v>0.6181443929672241</v>
+        <v>0.5946947336196899</v>
       </c>
     </row>
     <row r="129" spans="1:22">
@@ -9200,7 +9200,7 @@
         <v>0.9365639686584473</v>
       </c>
       <c r="V129" t="n">
-        <v>0.6587436199188232</v>
+        <v>0.3786694407463074</v>
       </c>
     </row>
     <row r="130" spans="1:22">
@@ -9268,7 +9268,7 @@
         <v>0.9395790100097656</v>
       </c>
       <c r="V130" t="n">
-        <v>0.5378978252410889</v>
+        <v>0.6535108089447021</v>
       </c>
     </row>
     <row r="131" spans="1:22">
@@ -9336,7 +9336,7 @@
         <v>0.8820738792419434</v>
       </c>
       <c r="V131" t="n">
-        <v>0.438521683216095</v>
+        <v>0.4176277816295624</v>
       </c>
     </row>
     <row r="132" spans="1:22">
@@ -9404,7 +9404,7 @@
         <v>0.8853549957275391</v>
       </c>
       <c r="V132" t="n">
-        <v>0.4068009853363037</v>
+        <v>0.8020263910293579</v>
       </c>
     </row>
     <row r="133" spans="1:22">
@@ -9472,7 +9472,7 @@
         <v>0.9771230220794678</v>
       </c>
       <c r="V133" t="n">
-        <v>0.5538752675056458</v>
+        <v>0.5244113802909851</v>
       </c>
     </row>
     <row r="134" spans="1:22">
@@ -9540,7 +9540,7 @@
         <v>0.9092328548431396</v>
       </c>
       <c r="V134" t="n">
-        <v>0.5905375480651855</v>
+        <v>0.8000637888908386</v>
       </c>
     </row>
     <row r="135" spans="1:22">
@@ -9608,7 +9608,7 @@
         <v>0.8951380252838135</v>
       </c>
       <c r="V135" t="n">
-        <v>0.4384209513664246</v>
+        <v>0.35074183344841</v>
       </c>
     </row>
     <row r="136" spans="1:22">
@@ -9676,7 +9676,7 @@
         <v>0.8852920532226562</v>
       </c>
       <c r="V136" t="n">
-        <v>0.5915652513504028</v>
+        <v>0.6863111853599548</v>
       </c>
     </row>
     <row r="137" spans="1:22">
@@ -9744,7 +9744,7 @@
         <v>0.9334981441497803</v>
       </c>
       <c r="V137" t="n">
-        <v>0.6240726113319397</v>
+        <v>0.6516773104667664</v>
       </c>
     </row>
     <row r="138" spans="1:22">
@@ -9812,7 +9812,7 @@
         <v>0.8817300796508789</v>
       </c>
       <c r="V138" t="n">
-        <v>0.8844614028930664</v>
+        <v>0.4691958427429199</v>
       </c>
     </row>
     <row r="139" spans="1:22">
@@ -9880,7 +9880,7 @@
         <v>0.877946138381958</v>
       </c>
       <c r="V139" t="n">
-        <v>0.7958468198776245</v>
+        <v>0.5947228074073792</v>
       </c>
     </row>
     <row r="140" spans="1:22">
@@ -9948,7 +9948,7 @@
         <v>0.8788509368896484</v>
       </c>
       <c r="V140" t="n">
-        <v>0.4834600687026978</v>
+        <v>0.699232816696167</v>
       </c>
     </row>
     <row r="141" spans="1:22">
@@ -10016,7 +10016,7 @@
         <v>0.8856711387634277</v>
       </c>
       <c r="V141" t="n">
-        <v>0.703600287437439</v>
+        <v>0.4176313579082489</v>
       </c>
     </row>
     <row r="142" spans="1:22">
@@ -10084,7 +10084,7 @@
         <v>0.539654016494751</v>
       </c>
       <c r="V142" t="n">
-        <v>0.4038267731666565</v>
+        <v>0.5251706838607788</v>
       </c>
     </row>
     <row r="143" spans="1:22">
@@ -10152,7 +10152,7 @@
         <v>0.5301709175109863</v>
       </c>
       <c r="V143" t="n">
-        <v>0.6086816191673279</v>
+        <v>0.4637985229492188</v>
       </c>
     </row>
     <row r="144" spans="1:22">
@@ -10220,7 +10220,7 @@
         <v>0.533066987991333</v>
       </c>
       <c r="V144" t="n">
-        <v>0.8822290897369385</v>
+        <v>0.4176395535469055</v>
       </c>
     </row>
     <row r="145" spans="1:22">
@@ -10288,7 +10288,7 @@
         <v>0.5278267860412598</v>
       </c>
       <c r="V145" t="n">
-        <v>0.4770028591156006</v>
+        <v>0.4904178380966187</v>
       </c>
     </row>
     <row r="146" spans="1:22">
@@ -10356,7 +10356,7 @@
         <v>0.530515193939209</v>
       </c>
       <c r="V146" t="n">
-        <v>0.4425503611564636</v>
+        <v>0.802345335483551</v>
       </c>
     </row>
     <row r="147" spans="1:22">
@@ -10424,7 +10424,7 @@
         <v>0.5385630130767822</v>
       </c>
       <c r="V147" t="n">
-        <v>0.3610076904296875</v>
+        <v>0.8023541569709778</v>
       </c>
     </row>
     <row r="148" spans="1:22">
@@ -10492,7 +10492,7 @@
         <v>0.5337851047515869</v>
       </c>
       <c r="V148" t="n">
-        <v>0.7097801566123962</v>
+        <v>0.4906106293201447</v>
       </c>
     </row>
     <row r="149" spans="1:22">
@@ -10560,7 +10560,7 @@
         <v>0.5306360721588135</v>
       </c>
       <c r="V149" t="n">
-        <v>0.4226563572883606</v>
+        <v>0.9757455587387085</v>
       </c>
     </row>
     <row r="150" spans="1:22">
@@ -10628,7 +10628,7 @@
         <v>0.529973030090332</v>
       </c>
       <c r="V150" t="n">
-        <v>0.7040725350379944</v>
+        <v>0.3507759571075439</v>
       </c>
     </row>
     <row r="151" spans="1:22">
@@ -10696,7 +10696,7 @@
         <v>0.55051589012146</v>
       </c>
       <c r="V151" t="n">
-        <v>0.5854825973510742</v>
+        <v>0.3507504463195801</v>
       </c>
     </row>
     <row r="152" spans="1:22">
@@ -10764,7 +10764,7 @@
         <v>0.5510158538818359</v>
       </c>
       <c r="V152" t="n">
-        <v>0.4792518615722656</v>
+        <v>0.8047276735305786</v>
       </c>
     </row>
     <row r="153" spans="1:22">
@@ -10832,7 +10832,7 @@
         <v>0.5294108390808105</v>
       </c>
       <c r="V153" t="n">
-        <v>0.4757353663444519</v>
+        <v>0.5045288801193237</v>
       </c>
     </row>
     <row r="154" spans="1:22">
@@ -10900,7 +10900,7 @@
         <v>0.5271210670471191</v>
       </c>
       <c r="V154" t="n">
-        <v>0.4211356043815613</v>
+        <v>0.6862813830375671</v>
       </c>
     </row>
     <row r="155" spans="1:22">
@@ -10968,7 +10968,7 @@
         <v>0.5299139022827148</v>
       </c>
       <c r="V155" t="n">
-        <v>0.4035907387733459</v>
+        <v>0.9755794405937195</v>
       </c>
     </row>
     <row r="156" spans="1:22">
@@ -11036,7 +11036,7 @@
         <v>0.583341121673584</v>
       </c>
       <c r="V156" t="n">
-        <v>0.5380772948265076</v>
+        <v>0.490329772233963</v>
       </c>
     </row>
     <row r="157" spans="1:22">
@@ -11104,7 +11104,7 @@
         <v>0.532667875289917</v>
       </c>
       <c r="V157" t="n">
-        <v>0.6075578927993774</v>
+        <v>0.490833193063736</v>
       </c>
     </row>
     <row r="158" spans="1:22">
@@ -11172,7 +11172,7 @@
         <v>0.5350229740142822</v>
       </c>
       <c r="V158" t="n">
-        <v>0.4765533804893494</v>
+        <v>0.3507598340511322</v>
       </c>
     </row>
     <row r="159" spans="1:22">
@@ -11240,7 +11240,7 @@
         <v>0.5340468883514404</v>
       </c>
       <c r="V159" t="n">
-        <v>0.4398151040077209</v>
+        <v>0.4614620208740234</v>
       </c>
     </row>
     <row r="160" spans="1:22">
@@ -11308,7 +11308,7 @@
         <v>0.5316998958587646</v>
       </c>
       <c r="V160" t="n">
-        <v>0.5379217863082886</v>
+        <v>0.8341859579086304</v>
       </c>
     </row>
     <row r="161" spans="1:22">
@@ -11376,7 +11376,7 @@
         <v>0.5935299396514893</v>
       </c>
       <c r="V161" t="n">
-        <v>0.4902856349945068</v>
+        <v>0.5763152837753296</v>
       </c>
     </row>
     <row r="162" spans="1:22">
@@ -11444,7 +11444,7 @@
         <v>0.4093868732452393</v>
       </c>
       <c r="V162" t="n">
-        <v>0.3887149095535278</v>
+        <v>0.8337250947952271</v>
       </c>
     </row>
     <row r="163" spans="1:22">
@@ -11512,7 +11512,7 @@
         <v>0.4065051078796387</v>
       </c>
       <c r="V163" t="n">
-        <v>0.6077598333358765</v>
+        <v>0.4176499843597412</v>
       </c>
     </row>
     <row r="164" spans="1:22">
@@ -11580,7 +11580,7 @@
         <v>0.3991808891296387</v>
       </c>
       <c r="V164" t="n">
-        <v>0.4223563671112061</v>
+        <v>0.5046958923339844</v>
       </c>
     </row>
     <row r="165" spans="1:22">
@@ -11648,7 +11648,7 @@
         <v>0.4052278995513916</v>
       </c>
       <c r="V165" t="n">
-        <v>0.689443826675415</v>
+        <v>0.3507497906684875</v>
       </c>
     </row>
     <row r="166" spans="1:22">
@@ -11716,7 +11716,7 @@
         <v>0.4011631011962891</v>
       </c>
       <c r="V166" t="n">
-        <v>0.5659052133560181</v>
+        <v>0.5762007236480713</v>
       </c>
     </row>
     <row r="167" spans="1:22">
@@ -11784,7 +11784,7 @@
         <v>0.4490811824798584</v>
       </c>
       <c r="V167" t="n">
-        <v>0.5887453556060791</v>
+        <v>0.9760792851448059</v>
       </c>
     </row>
     <row r="168" spans="1:22">
@@ -11852,7 +11852,7 @@
         <v>0.4015998840332031</v>
       </c>
       <c r="V168" t="n">
-        <v>0.3609938621520996</v>
+        <v>0.5823945999145508</v>
       </c>
     </row>
     <row r="169" spans="1:22">
@@ -11920,7 +11920,7 @@
         <v>0.4047849178314209</v>
       </c>
       <c r="V169" t="n">
-        <v>0.3609108924865723</v>
+        <v>0.6532728672027588</v>
       </c>
     </row>
     <row r="170" spans="1:22">
@@ -11988,7 +11988,7 @@
         <v>0.4026010036468506</v>
       </c>
       <c r="V170" t="n">
-        <v>0.6487356424331665</v>
+        <v>0.4176727831363678</v>
       </c>
     </row>
     <row r="171" spans="1:22">
@@ -12056,7 +12056,7 @@
         <v>0.401104211807251</v>
       </c>
       <c r="V171" t="n">
-        <v>0.3609158396720886</v>
+        <v>0.5821697115898132</v>
       </c>
     </row>
     <row r="172" spans="1:22">
@@ -12124,7 +12124,7 @@
         <v>0.4033920764923096</v>
       </c>
       <c r="V172" t="n">
-        <v>0.4224058389663696</v>
+        <v>0.4906497597694397</v>
       </c>
     </row>
     <row r="173" spans="1:22">
@@ -12192,7 +12192,7 @@
         <v>0.4314339160919189</v>
       </c>
       <c r="V173" t="n">
-        <v>0.6490487456321716</v>
+        <v>0.3507571518421173</v>
       </c>
     </row>
     <row r="174" spans="1:22">
@@ -12260,7 +12260,7 @@
         <v>0.4098010063171387</v>
       </c>
       <c r="V174" t="n">
-        <v>0.5887073874473572</v>
+        <v>0.5762090086936951</v>
       </c>
     </row>
     <row r="175" spans="1:22">
@@ -12328,7 +12328,7 @@
         <v>0.4046478271484375</v>
       </c>
       <c r="V175" t="n">
-        <v>0.6095840334892273</v>
+        <v>0.5248144865036011</v>
       </c>
     </row>
     <row r="176" spans="1:22">
@@ -12396,7 +12396,7 @@
         <v>0.4040770530700684</v>
       </c>
       <c r="V176" t="n">
-        <v>0.401404857635498</v>
+        <v>0.5245877504348755</v>
       </c>
     </row>
     <row r="177" spans="1:22">
@@ -12464,7 +12464,7 @@
         <v>0.4129810333251953</v>
       </c>
       <c r="V177" t="n">
-        <v>0.5378779172897339</v>
+        <v>0.6543192863464355</v>
       </c>
     </row>
     <row r="178" spans="1:22">
@@ -12532,7 +12532,7 @@
         <v>0.4443020820617676</v>
       </c>
       <c r="V178" t="n">
-        <v>0.4225040078163147</v>
+        <v>0.7080433368682861</v>
       </c>
     </row>
     <row r="179" spans="1:22">
@@ -12600,7 +12600,7 @@
         <v>0.4889922142028809</v>
       </c>
       <c r="V179" t="n">
-        <v>0.4712569713592529</v>
+        <v>0.5245612859725952</v>
       </c>
     </row>
     <row r="180" spans="1:22">
@@ -12668,7 +12668,7 @@
         <v>0.4019980430603027</v>
       </c>
       <c r="V180" t="n">
-        <v>0.4870217442512512</v>
+        <v>0.8022716045379639</v>
       </c>
     </row>
     <row r="181" spans="1:22">
@@ -12736,7 +12736,7 @@
         <v>0.4092979431152344</v>
       </c>
       <c r="V181" t="n">
-        <v>0.480150043964386</v>
+        <v>0.524641752243042</v>
       </c>
     </row>
     <row r="182" spans="1:22">
@@ -12804,7 +12804,7 @@
         <v>0.891876220703125</v>
       </c>
       <c r="V182" t="n">
-        <v>0.3611395955085754</v>
+        <v>0.3783542811870575</v>
       </c>
     </row>
     <row r="183" spans="1:22">
@@ -12872,7 +12872,7 @@
         <v>0.8808250427246094</v>
       </c>
       <c r="V183" t="n">
-        <v>0.4888110160827637</v>
+        <v>0.4176412224769592</v>
       </c>
     </row>
     <row r="184" spans="1:22">
@@ -12940,7 +12940,7 @@
         <v>0.913067102432251</v>
       </c>
       <c r="V184" t="n">
-        <v>0.3610337376594543</v>
+        <v>0.4175667762756348</v>
       </c>
     </row>
     <row r="185" spans="1:22">
@@ -13008,7 +13008,7 @@
         <v>0.8929059505462646</v>
       </c>
       <c r="V185" t="n">
-        <v>0.4788762331008911</v>
+        <v>0.8028735518455505</v>
       </c>
     </row>
     <row r="186" spans="1:22">
@@ -13076,7 +13076,7 @@
         <v>0.9277229309082031</v>
       </c>
       <c r="V186" t="n">
-        <v>0.6556221842765808</v>
+        <v>0.4781287908554077</v>
       </c>
     </row>
     <row r="187" spans="1:22">
@@ -13144,7 +13144,7 @@
         <v>0.9063000679016113</v>
       </c>
       <c r="V187" t="n">
-        <v>0.4408711791038513</v>
+        <v>0.5870838761329651</v>
       </c>
     </row>
     <row r="188" spans="1:22">
@@ -13212,7 +13212,7 @@
         <v>0.8852560520172119</v>
       </c>
       <c r="V188" t="n">
-        <v>0.48039710521698</v>
+        <v>0.8012609481811523</v>
       </c>
     </row>
     <row r="189" spans="1:22">
@@ -13280,7 +13280,7 @@
         <v>0.8886961936950684</v>
       </c>
       <c r="V189" t="n">
-        <v>0.4805735945701599</v>
+        <v>0.590633749961853</v>
       </c>
     </row>
     <row r="190" spans="1:22">
@@ -13348,7 +13348,7 @@
         <v>0.8827528953552246</v>
       </c>
       <c r="V190" t="n">
-        <v>0.5620260834693909</v>
+        <v>0.5050980448722839</v>
       </c>
     </row>
     <row r="191" spans="1:22">
@@ -13416,7 +13416,7 @@
         <v>0.9401040077209473</v>
       </c>
       <c r="V191" t="n">
-        <v>0.5379284620285034</v>
+        <v>0.8004976511001587</v>
       </c>
     </row>
     <row r="192" spans="1:22">
@@ -13484,7 +13484,7 @@
         <v>0.8825490474700928</v>
       </c>
       <c r="V192" t="n">
-        <v>0.422416090965271</v>
+        <v>0.3720975518226624</v>
       </c>
     </row>
     <row r="193" spans="1:22">
@@ -13552,7 +13552,7 @@
         <v>0.8858850002288818</v>
       </c>
       <c r="V193" t="n">
-        <v>0.5379790663719177</v>
+        <v>0.5051230192184448</v>
       </c>
     </row>
     <row r="194" spans="1:22">
@@ -13620,7 +13620,7 @@
         <v>0.8831770420074463</v>
       </c>
       <c r="V194" t="n">
-        <v>0.6894387602806091</v>
+        <v>0.5908601880073547</v>
       </c>
     </row>
     <row r="195" spans="1:22">
@@ -13688,7 +13688,7 @@
         <v>0.9418988227844238</v>
       </c>
       <c r="V195" t="n">
-        <v>0.6840715408325195</v>
+        <v>0.6990503668785095</v>
       </c>
     </row>
     <row r="196" spans="1:22">
@@ -13756,7 +13756,7 @@
         <v>0.8837671279907227</v>
       </c>
       <c r="V196" t="n">
-        <v>0.4849292635917664</v>
+        <v>0.5760207772254944</v>
       </c>
     </row>
     <row r="197" spans="1:22">
@@ -13824,7 +13824,7 @@
         <v>0.8807148933410645</v>
       </c>
       <c r="V197" t="n">
-        <v>0.3609372973442078</v>
+        <v>0.6533793210983276</v>
       </c>
     </row>
     <row r="198" spans="1:22">
@@ -13892,7 +13892,7 @@
         <v>0.8814489841461182</v>
       </c>
       <c r="V198" t="n">
-        <v>0.5612205266952515</v>
+        <v>0.9755766987800598</v>
       </c>
     </row>
     <row r="199" spans="1:22">
@@ -13960,7 +13960,7 @@
         <v>0.9411418437957764</v>
       </c>
       <c r="V199" t="n">
-        <v>0.5879279971122742</v>
+        <v>0.8045668601989746</v>
       </c>
     </row>
     <row r="200" spans="1:22">
@@ -14028,7 +14028,7 @@
         <v>0.8811769485473633</v>
       </c>
       <c r="V200" t="n">
-        <v>0.4550826549530029</v>
+        <v>0.4611299932003021</v>
       </c>
     </row>
     <row r="201" spans="1:22">
@@ -14096,7 +14096,7 @@
         <v>0.8956382274627686</v>
       </c>
       <c r="V201" t="n">
-        <v>0.4228060841560364</v>
+        <v>0.4614459872245789</v>
       </c>
     </row>
     <row r="202" spans="1:22">
@@ -14164,7 +14164,7 @@
         <v>0.5340750217437744</v>
       </c>
       <c r="V202" t="n">
-        <v>0.6058166027069092</v>
+        <v>0.653571605682373</v>
       </c>
     </row>
     <row r="203" spans="1:22">
@@ -14232,7 +14232,7 @@
         <v>0.5280799865722656</v>
       </c>
       <c r="V203" t="n">
-        <v>0.6571362614631653</v>
+        <v>0.9755939245223999</v>
       </c>
     </row>
     <row r="204" spans="1:22">
@@ -14300,7 +14300,7 @@
         <v>0.55855393409729</v>
       </c>
       <c r="V204" t="n">
-        <v>0.4226717352867126</v>
+        <v>0.6538669466972351</v>
       </c>
     </row>
     <row r="205" spans="1:22">
@@ -14368,7 +14368,7 @@
         <v>0.5331411361694336</v>
       </c>
       <c r="V205" t="n">
-        <v>0.3859796524047852</v>
+        <v>0.6538257002830505</v>
       </c>
     </row>
     <row r="206" spans="1:22">
@@ -14436,7 +14436,7 @@
         <v>0.5327358245849609</v>
       </c>
       <c r="V206" t="n">
-        <v>0.4228395819664001</v>
+        <v>0.800457239151001</v>
       </c>
     </row>
     <row r="207" spans="1:22">
@@ -14504,7 +14504,7 @@
         <v>0.5310330390930176</v>
       </c>
       <c r="V207" t="n">
-        <v>0.7101702690124512</v>
+        <v>0.4611244201660156</v>
       </c>
     </row>
     <row r="208" spans="1:22">
@@ -14572,7 +14572,7 @@
         <v>0.5280430316925049</v>
       </c>
       <c r="V208" t="n">
-        <v>0.4212579131126404</v>
+        <v>0.8371423482894897</v>
       </c>
     </row>
     <row r="209" spans="1:22">
@@ -14640,7 +14640,7 @@
         <v>0.5312619209289551</v>
       </c>
       <c r="V209" t="n">
-        <v>0.4923393726348877</v>
+        <v>0.4908800721168518</v>
       </c>
     </row>
     <row r="210" spans="1:22">
@@ -14708,7 +14708,7 @@
         <v>0.5441038608551025</v>
       </c>
       <c r="V210" t="n">
-        <v>0.4868853092193604</v>
+        <v>0.5042976140975952</v>
       </c>
     </row>
     <row r="211" spans="1:22">
@@ -14776,7 +14776,7 @@
         <v>0.5353600978851318</v>
       </c>
       <c r="V211" t="n">
-        <v>0.3657307028770447</v>
+        <v>0.8004674911499023</v>
       </c>
     </row>
     <row r="212" spans="1:22">
@@ -14844,7 +14844,7 @@
         <v>0.5355451107025146</v>
       </c>
       <c r="V212" t="n">
-        <v>0.4211761355400085</v>
+        <v>0.5042588710784912</v>
       </c>
     </row>
     <row r="213" spans="1:22">
@@ -14912,7 +14912,7 @@
         <v>0.532059907913208</v>
       </c>
       <c r="V213" t="n">
-        <v>0.7962723970413208</v>
+        <v>0.4638285040855408</v>
       </c>
     </row>
     <row r="214" spans="1:22">
@@ -14980,7 +14980,7 @@
         <v>0.5883300304412842</v>
       </c>
       <c r="V214" t="n">
-        <v>0.4802520871162415</v>
+        <v>0.6536403894424438</v>
       </c>
     </row>
     <row r="215" spans="1:22">
@@ -15048,7 +15048,7 @@
         <v>0.5338649749755859</v>
       </c>
       <c r="V215" t="n">
-        <v>0.5379660129547119</v>
+        <v>0.4634905457496643</v>
       </c>
     </row>
     <row r="216" spans="1:22">
@@ -15116,7 +15116,7 @@
         <v>0.5369060039520264</v>
       </c>
       <c r="V216" t="n">
-        <v>0.6179987788200378</v>
+        <v>0.6533820629119873</v>
       </c>
     </row>
     <row r="217" spans="1:22">
@@ -15184,7 +15184,7 @@
         <v>0.5312070846557617</v>
       </c>
       <c r="V217" t="n">
-        <v>0.3609561920166016</v>
+        <v>0.5762016177177429</v>
       </c>
     </row>
     <row r="218" spans="1:22">
@@ -15252,7 +15252,7 @@
         <v>0.5312271118164062</v>
       </c>
       <c r="V218" t="n">
-        <v>0.5378905534744263</v>
+        <v>0.6546903848648071</v>
       </c>
     </row>
     <row r="219" spans="1:22">
@@ -15320,7 +15320,7 @@
         <v>0.5899190902709961</v>
       </c>
       <c r="V219" t="n">
-        <v>0.5692344903945923</v>
+        <v>0.9755281805992126</v>
       </c>
     </row>
     <row r="220" spans="1:22">
@@ -15388,7 +15388,7 @@
         <v>0.5367641448974609</v>
       </c>
       <c r="V220" t="n">
-        <v>0.3671593070030212</v>
+        <v>0.9751924276351929</v>
       </c>
     </row>
     <row r="221" spans="1:22">
@@ -15456,7 +15456,7 @@
         <v>0.5353620052337646</v>
       </c>
       <c r="V221" t="n">
-        <v>0.4890546202659607</v>
+        <v>0.3507649004459381</v>
       </c>
     </row>
     <row r="222" spans="1:22">
@@ -15524,7 +15524,7 @@
         <v>0.3991918563842773</v>
       </c>
       <c r="V222" t="n">
-        <v>0.5903171300888062</v>
+        <v>0.4175451099872589</v>
       </c>
     </row>
     <row r="223" spans="1:22">
@@ -15592,7 +15592,7 @@
         <v>0.3988630771636963</v>
       </c>
       <c r="V223" t="n">
-        <v>0.378571629524231</v>
+        <v>0.6542560458183289</v>
       </c>
     </row>
     <row r="224" spans="1:22">
@@ -15660,7 +15660,7 @@
         <v>0.4080910682678223</v>
       </c>
       <c r="V224" t="n">
-        <v>0.5611301064491272</v>
+        <v>0.4907905161380768</v>
       </c>
     </row>
     <row r="225" spans="1:22">
@@ -15728,7 +15728,7 @@
         <v>0.4009909629821777</v>
       </c>
       <c r="V225" t="n">
-        <v>0.3609644174575806</v>
+        <v>0.6926920413970947</v>
       </c>
     </row>
     <row r="226" spans="1:22">
@@ -15796,7 +15796,7 @@
         <v>0.4052519798278809</v>
       </c>
       <c r="V226" t="n">
-        <v>0.591393768787384</v>
+        <v>0.8046457171440125</v>
       </c>
     </row>
     <row r="227" spans="1:22">
@@ -15864,7 +15864,7 @@
         <v>0.4094200134277344</v>
       </c>
       <c r="V227" t="n">
-        <v>0.3871904611587524</v>
+        <v>0.3507855832576752</v>
       </c>
     </row>
     <row r="228" spans="1:22">
@@ -15932,7 +15932,7 @@
         <v>0.4066460132598877</v>
       </c>
       <c r="V228" t="n">
-        <v>0.5888757705688477</v>
+        <v>0.4175422191619873</v>
       </c>
     </row>
     <row r="229" spans="1:22">
@@ -16000,7 +16000,7 @@
         <v>0.4332959651947021</v>
       </c>
       <c r="V229" t="n">
-        <v>0.4400861263275146</v>
+        <v>0.4614622294902802</v>
       </c>
     </row>
     <row r="230" spans="1:22">
@@ -16068,7 +16068,7 @@
         <v>0.4015820026397705</v>
       </c>
       <c r="V230" t="n">
-        <v>0.473851203918457</v>
+        <v>0.5870922207832336</v>
       </c>
     </row>
     <row r="231" spans="1:22">
@@ -16136,7 +16136,7 @@
         <v>0.4050970077514648</v>
       </c>
       <c r="V231" t="n">
-        <v>0.480705738067627</v>
+        <v>0.4615276753902435</v>
       </c>
     </row>
     <row r="232" spans="1:22">
@@ -16204,7 +16204,7 @@
         <v>0.4173200130462646</v>
       </c>
       <c r="V232" t="n">
-        <v>0.4226258993148804</v>
+        <v>0.5930236577987671</v>
       </c>
     </row>
     <row r="233" spans="1:22">
@@ -16272,7 +16272,7 @@
         <v>0.4144260883331299</v>
       </c>
       <c r="V233" t="n">
-        <v>0.5858365893363953</v>
+        <v>0.5245010852813721</v>
       </c>
     </row>
     <row r="234" spans="1:22">
@@ -16340,7 +16340,7 @@
         <v>0.4076559543609619</v>
       </c>
       <c r="V234" t="n">
-        <v>0.4224810004234314</v>
+        <v>0.3710145056247711</v>
       </c>
     </row>
     <row r="235" spans="1:22">
@@ -16408,7 +16408,7 @@
         <v>0.4050118923187256</v>
       </c>
       <c r="V235" t="n">
-        <v>0.689429759979248</v>
+        <v>0.5756250023841858</v>
       </c>
     </row>
     <row r="236" spans="1:22">
@@ -16476,7 +16476,7 @@
         <v>0.4071331024169922</v>
       </c>
       <c r="V236" t="n">
-        <v>0.4841680526733398</v>
+        <v>0.6926973462104797</v>
       </c>
     </row>
     <row r="237" spans="1:22">
@@ -16544,7 +16544,7 @@
         <v>0.4058289527893066</v>
       </c>
       <c r="V237" t="n">
-        <v>0.5874905586242676</v>
+        <v>0.4638172388076782</v>
       </c>
     </row>
     <row r="238" spans="1:22">
@@ -16612,7 +16612,7 @@
         <v>0.4014730453491211</v>
       </c>
       <c r="V238" t="n">
-        <v>0.3785778284072876</v>
+        <v>0.6538190245628357</v>
       </c>
     </row>
     <row r="239" spans="1:22">
@@ -16680,7 +16680,7 @@
         <v>0.4043900966644287</v>
       </c>
       <c r="V239" t="n">
-        <v>0.7964216470718384</v>
+        <v>0.4908617734909058</v>
       </c>
     </row>
     <row r="240" spans="1:22">
@@ -16748,7 +16748,7 @@
         <v>0.3961811065673828</v>
       </c>
       <c r="V240" t="n">
-        <v>0.4550627470016479</v>
+        <v>0.8339731693267822</v>
       </c>
     </row>
     <row r="241" spans="1:22">
@@ -16816,7 +16816,7 @@
         <v>0.4033911228179932</v>
       </c>
       <c r="V241" t="n">
-        <v>0.4553601741790771</v>
+        <v>0.4611094295978546</v>
       </c>
     </row>
     <row r="242" spans="1:22">
@@ -16884,7 +16884,7 @@
         <v>0.9586129188537598</v>
       </c>
       <c r="V242" t="n">
-        <v>0.7098118662834167</v>
+        <v>0.3778701424598694</v>
       </c>
     </row>
     <row r="243" spans="1:22">
@@ -16952,7 +16952,7 @@
         <v>0.9021270275115967</v>
       </c>
       <c r="V243" t="n">
-        <v>0.4854723215103149</v>
+        <v>0.4908333420753479</v>
       </c>
     </row>
     <row r="244" spans="1:22">
@@ -17020,7 +17020,7 @@
         <v>0.8979690074920654</v>
       </c>
       <c r="V244" t="n">
-        <v>0.8821812868118286</v>
+        <v>0.4897371828556061</v>
       </c>
     </row>
     <row r="245" spans="1:22">
@@ -17088,7 +17088,7 @@
         <v>0.8967618942260742</v>
       </c>
       <c r="V245" t="n">
-        <v>0.4676487445831299</v>
+        <v>0.6992238759994507</v>
       </c>
     </row>
     <row r="246" spans="1:22">
@@ -17156,7 +17156,7 @@
         <v>0.9445419311523438</v>
       </c>
       <c r="V246" t="n">
-        <v>0.7902021408081055</v>
+        <v>0.8414528369903564</v>
       </c>
     </row>
     <row r="247" spans="1:22">
@@ -17224,7 +17224,7 @@
         <v>0.8941390514373779</v>
       </c>
       <c r="V247" t="n">
-        <v>0.8843103051185608</v>
+        <v>0.3507513999938965</v>
       </c>
     </row>
     <row r="248" spans="1:22">
@@ -17292,7 +17292,7 @@
         <v>0.8910861015319824</v>
       </c>
       <c r="V248" t="n">
-        <v>0.5379487872123718</v>
+        <v>0.4176262617111206</v>
       </c>
     </row>
     <row r="249" spans="1:22">
@@ -17360,7 +17360,7 @@
         <v>0.9741928577423096</v>
       </c>
       <c r="V249" t="n">
-        <v>0.6980237364768982</v>
+        <v>0.7082430720329285</v>
       </c>
     </row>
     <row r="250" spans="1:22">
@@ -17428,7 +17428,7 @@
         <v>0.8945090770721436</v>
       </c>
       <c r="V250" t="n">
-        <v>0.5378905534744263</v>
+        <v>0.6535565853118896</v>
       </c>
     </row>
     <row r="251" spans="1:22">
@@ -17496,7 +17496,7 @@
         <v>0.9051511287689209</v>
       </c>
       <c r="V251" t="n">
-        <v>0.3611143827438354</v>
+        <v>0.417652815580368</v>
       </c>
     </row>
     <row r="252" spans="1:22">
@@ -17564,7 +17564,7 @@
         <v>0.8906478881835938</v>
       </c>
       <c r="V252" t="n">
-        <v>0.6074541807174683</v>
+        <v>0.3783480226993561</v>
       </c>
     </row>
     <row r="253" spans="1:22">
@@ -17632,7 +17632,7 @@
         <v>0.905116081237793</v>
       </c>
       <c r="V253" t="n">
-        <v>0.6180075407028198</v>
+        <v>0.417632520198822</v>
       </c>
     </row>
     <row r="254" spans="1:22">
@@ -17700,7 +17700,7 @@
         <v>0.8896300792694092</v>
       </c>
       <c r="V254" t="n">
-        <v>0.6980321407318115</v>
+        <v>0.4904916286468506</v>
       </c>
     </row>
     <row r="255" spans="1:22">
@@ -17768,7 +17768,7 @@
         <v>0.8911221027374268</v>
       </c>
       <c r="V255" t="n">
-        <v>0.6077430248260498</v>
+        <v>0.3785795569419861</v>
       </c>
     </row>
     <row r="256" spans="1:22">
@@ -17836,7 +17836,7 @@
         <v>0.8896300792694092</v>
       </c>
       <c r="V256" t="n">
-        <v>0.6980226039886475</v>
+        <v>0.5761433839797974</v>
       </c>
     </row>
     <row r="257" spans="1:22">
@@ -17904,7 +17904,7 @@
         <v>0.9598829746246338</v>
       </c>
       <c r="V257" t="n">
-        <v>0.8804707527160645</v>
+        <v>0.5258046388626099</v>
       </c>
     </row>
     <row r="258" spans="1:22">
@@ -17972,7 +17972,7 @@
         <v>0.8842358589172363</v>
       </c>
       <c r="V258" t="n">
-        <v>0.5172411203384399</v>
+        <v>0.5243822336196899</v>
       </c>
     </row>
     <row r="259" spans="1:22">
@@ -18040,7 +18040,7 @@
         <v>0.8970301151275635</v>
       </c>
       <c r="V259" t="n">
-        <v>0.6566144227981567</v>
+        <v>0.417630136013031</v>
       </c>
     </row>
     <row r="260" spans="1:22">
@@ -18108,7 +18108,7 @@
         <v>0.8835229873657227</v>
       </c>
       <c r="V260" t="n">
-        <v>0.4203795194625854</v>
+        <v>0.3783526420593262</v>
       </c>
     </row>
     <row r="261" spans="1:22">
@@ -18176,7 +18176,7 @@
         <v>0.9493281841278076</v>
       </c>
       <c r="V261" t="n">
-        <v>0.5379610061645508</v>
+        <v>0.490370512008667</v>
       </c>
     </row>
     <row r="262" spans="1:22">
@@ -18244,7 +18244,7 @@
         <v>0.5532999038696289</v>
       </c>
       <c r="V262" t="n">
-        <v>0.3609153628349304</v>
+        <v>0.503772497177124</v>
       </c>
     </row>
     <row r="263" spans="1:22">
@@ -18312,7 +18312,7 @@
         <v>0.5493950843811035</v>
       </c>
       <c r="V263" t="n">
-        <v>0.366996169090271</v>
+        <v>0.4903903901576996</v>
       </c>
     </row>
     <row r="264" spans="1:22">
@@ -18380,7 +18380,7 @@
         <v>0.5352129936218262</v>
       </c>
       <c r="V264" t="n">
-        <v>0.4795900583267212</v>
+        <v>0.4176348447799683</v>
       </c>
     </row>
     <row r="265" spans="1:22">
@@ -18448,7 +18448,7 @@
         <v>0.5383920669555664</v>
       </c>
       <c r="V265" t="n">
-        <v>0.5379613637924194</v>
+        <v>0.3507537245750427</v>
       </c>
     </row>
     <row r="266" spans="1:22">
@@ -18516,7 +18516,7 @@
         <v>0.5986061096191406</v>
       </c>
       <c r="V266" t="n">
-        <v>0.4833751916885376</v>
+        <v>0.654336154460907</v>
       </c>
     </row>
     <row r="267" spans="1:22">
@@ -18584,7 +18584,7 @@
         <v>0.5483062267303467</v>
       </c>
       <c r="V267" t="n">
-        <v>0.6980326771736145</v>
+        <v>0.838257908821106</v>
       </c>
     </row>
     <row r="268" spans="1:22">
@@ -18652,7 +18652,7 @@
         <v>0.5410749912261963</v>
       </c>
       <c r="V268" t="n">
-        <v>0.4554443955421448</v>
+        <v>0.4176601767539978</v>
       </c>
     </row>
     <row r="269" spans="1:22">
@@ -18720,7 +18720,7 @@
         <v>0.5398709774017334</v>
       </c>
       <c r="V269" t="n">
-        <v>0.6896145939826965</v>
+        <v>0.4174875020980835</v>
       </c>
     </row>
     <row r="270" spans="1:22">
@@ -18788,7 +18788,7 @@
         <v>0.5443179607391357</v>
       </c>
       <c r="V270" t="n">
-        <v>0.3867775201797485</v>
+        <v>0.3518496155738831</v>
       </c>
     </row>
     <row r="271" spans="1:22">
@@ -18856,7 +18856,7 @@
         <v>0.5771389007568359</v>
       </c>
       <c r="V271" t="n">
-        <v>0.4223513603210449</v>
+        <v>0.5762282013893127</v>
       </c>
     </row>
     <row r="272" spans="1:22">
@@ -18924,7 +18924,7 @@
         <v>0.6685018539428711</v>
       </c>
       <c r="V272" t="n">
-        <v>0.4399700164794922</v>
+        <v>0.4896917641162872</v>
       </c>
     </row>
     <row r="273" spans="1:22">
@@ -18992,7 +18992,7 @@
         <v>0.5557429790496826</v>
       </c>
       <c r="V273" t="n">
-        <v>0.7033109068870544</v>
+        <v>0.8046363592147827</v>
       </c>
     </row>
     <row r="274" spans="1:22">
@@ -19060,7 +19060,7 @@
         <v>0.5827388763427734</v>
       </c>
       <c r="V274" t="n">
-        <v>0.6077224016189575</v>
+        <v>0.3719484806060791</v>
       </c>
     </row>
     <row r="275" spans="1:22">
@@ -19128,7 +19128,7 @@
         <v>0.5357298851013184</v>
       </c>
       <c r="V275" t="n">
-        <v>0.5380850434303284</v>
+        <v>0.4903536438941956</v>
       </c>
     </row>
     <row r="276" spans="1:22">
@@ -19196,7 +19196,7 @@
         <v>0.5934269428253174</v>
       </c>
       <c r="V276" t="n">
-        <v>0.5904473066329956</v>
+        <v>0.5760191679000854</v>
       </c>
     </row>
     <row r="277" spans="1:22">
@@ -19264,7 +19264,7 @@
         <v>0.5378849506378174</v>
       </c>
       <c r="V277" t="n">
-        <v>0.7839377522468567</v>
+        <v>0.576347291469574</v>
       </c>
     </row>
     <row r="278" spans="1:22">
@@ -19332,7 +19332,7 @@
         <v>0.5386619567871094</v>
       </c>
       <c r="V278" t="n">
-        <v>0.3867952823638916</v>
+        <v>0.3720027506351471</v>
       </c>
     </row>
     <row r="279" spans="1:22">
@@ -19400,7 +19400,7 @@
         <v>0.563715934753418</v>
       </c>
       <c r="V279" t="n">
-        <v>0.6077727079391479</v>
+        <v>0.4176522493362427</v>
       </c>
     </row>
     <row r="280" spans="1:22">
@@ -19468,7 +19468,7 @@
         <v>0.5350220203399658</v>
       </c>
       <c r="V280" t="n">
-        <v>0.5161032676696777</v>
+        <v>0.5826015472412109</v>
       </c>
     </row>
     <row r="281" spans="1:22">
@@ -19536,7 +19536,7 @@
         <v>0.5406160354614258</v>
       </c>
       <c r="V281" t="n">
-        <v>0.5378709435462952</v>
+        <v>0.3515170216560364</v>
       </c>
     </row>
     <row r="282" spans="1:22">
@@ -19604,7 +19604,7 @@
         <v>0.4551918506622314</v>
       </c>
       <c r="V282" t="n">
-        <v>0.6976108551025391</v>
+        <v>0.3887981772422791</v>
       </c>
     </row>
     <row r="283" spans="1:22">
@@ -19672,7 +19672,7 @@
         <v>0.5286839008331299</v>
       </c>
       <c r="V283" t="n">
-        <v>0.3866152763366699</v>
+        <v>0.3518537282943726</v>
       </c>
     </row>
     <row r="284" spans="1:22">
@@ -19740,7 +19740,7 @@
         <v>0.4146311283111572</v>
       </c>
       <c r="V284" t="n">
-        <v>0.3665919899940491</v>
+        <v>0.975181519985199</v>
       </c>
     </row>
     <row r="285" spans="1:22">
@@ -19808,7 +19808,7 @@
         <v>0.4117069244384766</v>
       </c>
       <c r="V285" t="n">
-        <v>0.5379694104194641</v>
+        <v>0.7080770134925842</v>
       </c>
     </row>
     <row r="286" spans="1:22">
@@ -19876,7 +19876,7 @@
         <v>0.418874979019165</v>
       </c>
       <c r="V286" t="n">
-        <v>0.5662949681282043</v>
+        <v>0.8296811580657959</v>
       </c>
     </row>
     <row r="287" spans="1:22">
@@ -19944,7 +19944,7 @@
         <v>0.4625599384307861</v>
       </c>
       <c r="V287" t="n">
-        <v>0.4801205992698669</v>
+        <v>0.5044592022895813</v>
       </c>
     </row>
     <row r="288" spans="1:22">
@@ -20012,7 +20012,7 @@
         <v>0.4124529361724854</v>
       </c>
       <c r="V288" t="n">
-        <v>0.3648877739906311</v>
+        <v>0.3719204664230347</v>
       </c>
     </row>
     <row r="289" spans="1:22">
@@ -20080,7 +20080,7 @@
         <v>0.4440610408782959</v>
       </c>
       <c r="V289" t="n">
-        <v>0.4054241180419922</v>
+        <v>0.8381872177124023</v>
       </c>
     </row>
     <row r="290" spans="1:22">
@@ -20148,7 +20148,7 @@
         <v>0.4064319133758545</v>
       </c>
       <c r="V290" t="n">
-        <v>0.5379003286361694</v>
+        <v>0.3507492542266846</v>
       </c>
     </row>
     <row r="291" spans="1:22">
@@ -20216,7 +20216,7 @@
         <v>0.4111340045928955</v>
       </c>
       <c r="V291" t="n">
-        <v>0.4914345741271973</v>
+        <v>0.5248926877975464</v>
       </c>
     </row>
     <row r="292" spans="1:22">
@@ -20284,7 +20284,7 @@
         <v>0.4108929634094238</v>
       </c>
       <c r="V292" t="n">
-        <v>0.6896112561225891</v>
+        <v>0.4903136193752289</v>
       </c>
     </row>
     <row r="293" spans="1:22">
@@ -20352,7 +20352,7 @@
         <v>0.4676790237426758</v>
       </c>
       <c r="V293" t="n">
-        <v>0.5379763245582581</v>
+        <v>0.6525439023971558</v>
       </c>
     </row>
     <row r="294" spans="1:22">
@@ -20420,7 +20420,7 @@
         <v>0.4270689487457275</v>
       </c>
       <c r="V294" t="n">
-        <v>0.4850061535835266</v>
+        <v>0.97564297914505</v>
       </c>
     </row>
     <row r="295" spans="1:22">
@@ -20488,7 +20488,7 @@
         <v>0.4076859951019287</v>
       </c>
       <c r="V295" t="n">
-        <v>0.6075444221496582</v>
+        <v>0.4909484088420868</v>
       </c>
     </row>
     <row r="296" spans="1:22">
@@ -20556,7 +20556,7 @@
         <v>0.4094829559326172</v>
       </c>
       <c r="V296" t="n">
-        <v>0.4226645827293396</v>
+        <v>0.4176304936408997</v>
       </c>
     </row>
     <row r="297" spans="1:22">
@@ -20624,7 +20624,7 @@
         <v>0.426353931427002</v>
       </c>
       <c r="V297" t="n">
-        <v>0.4029312133789062</v>
+        <v>0.6528818607330322</v>
       </c>
     </row>
     <row r="298" spans="1:22">
@@ -20692,7 +20692,7 @@
         <v>0.4103739261627197</v>
       </c>
       <c r="V298" t="n">
-        <v>0.5562270879745483</v>
+        <v>0.3782425820827484</v>
       </c>
     </row>
     <row r="299" spans="1:22">
@@ -20760,7 +20760,7 @@
         <v>0.4647040367126465</v>
       </c>
       <c r="V299" t="n">
-        <v>0.6566483378410339</v>
+        <v>0.5262220501899719</v>
       </c>
     </row>
     <row r="300" spans="1:22">
@@ -20828,7 +20828,7 @@
         <v>0.4139828681945801</v>
       </c>
       <c r="V300" t="n">
-        <v>0.4719034433364868</v>
+        <v>0.6992213726043701</v>
       </c>
     </row>
     <row r="301" spans="1:22">
@@ -20896,7 +20896,7 @@
         <v>0.4141430854797363</v>
       </c>
       <c r="V301" t="n">
-        <v>0.5890090465545654</v>
+        <v>0.3720992505550385</v>
       </c>
     </row>
     <row r="302" spans="1:22">
